--- a/Radiator Database.xlsx
+++ b/Radiator Database.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Documents\GitSourceCode\Radiators\radiators2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88D9C62-E83E-4733-831E-A48CF642C3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C750488C-62C2-4786-A668-35797AA3A02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46155" yWindow="135" windowWidth="23640" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47265" yWindow="1080" windowWidth="21270" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RadiatorDatabase" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="TestNamedRange">'RadiatorDatabase'!$O$2</definedName>
+    <definedName name="TestNamedRange">'RadiatorDatabase'!$P$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="22">
   <si>
     <t>-</t>
   </si>
@@ -130,6 +130,24 @@
   <si>
     <t>Fudge</t>
   </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Stelrad</t>
+  </si>
+  <si>
+    <t>Acova</t>
+  </si>
+  <si>
+    <t>Azur</t>
+  </si>
+  <si>
+    <t>Coumn</t>
+  </si>
 </sst>
 </file>
 
@@ -169,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -177,14 +195,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -207,10 +262,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58EEB467-E210-4341-8481-A47BCCD8FBA1}" name="RadiatorDatabase" displayName="RadiatorDatabase" ref="A1:H149" totalsRowShown="0">
-  <autoFilter ref="A1:H149" xr:uid="{58EEB467-E210-4341-8481-A47BCCD8FBA1}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58EEB467-E210-4341-8481-A47BCCD8FBA1}" name="RadiatorDatabase" displayName="RadiatorDatabase" ref="A1:I172" totalsRowShown="0">
+  <autoFilter ref="A1:I172" xr:uid="{58EEB467-E210-4341-8481-A47BCCD8FBA1}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{9BB030BD-CDEC-486F-89D1-6094E4AC4FFD}" name="Key"/>
+    <tableColumn id="8" xr3:uid="{419D97C0-0DD3-41A5-AEEC-E4BD5ABD92D4}" name="Manufacturer"/>
     <tableColumn id="9" xr3:uid="{65AB19FF-545F-45C0-91E1-3C67FB8F1335}" name="Type"/>
     <tableColumn id="2" xr3:uid="{544C4AF4-5968-4717-AA9B-0E94F3C02B13}" name="Subtype"/>
     <tableColumn id="3" xr3:uid="{2B0097BC-186B-4277-B0C6-7BA70194DE28}" name="Height"/>
@@ -486,4264 +542,5267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FF5D92-B17B-4500-A196-AEEFF3505D3D}">
-  <dimension ref="A1:O164"/>
+  <dimension ref="A1:P172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G183" sqref="G183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.46484375" customWidth="1"/>
-    <col min="3" max="3" width="6.796875" customWidth="1"/>
-    <col min="4" max="4" width="8.265625" customWidth="1"/>
-    <col min="5" max="6" width="8.3984375" customWidth="1"/>
-    <col min="7" max="7" width="11.06640625" customWidth="1"/>
-    <col min="8" max="8" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="11.46484375" customWidth="1"/>
+    <col min="4" max="4" width="6.796875" customWidth="1"/>
+    <col min="5" max="5" width="8.265625" customWidth="1"/>
+    <col min="6" max="7" width="8.3984375" customWidth="1"/>
+    <col min="8" max="8" width="11.06640625" customWidth="1"/>
+    <col min="9" max="9" width="6.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="L2" t="str" cm="1">
-        <f t="array" ref="L2:L3">_xlfn.UNIQUE(RadiatorDatabase[Type])</f>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="str" cm="1">
+        <f t="array" ref="M2:M6">_xlfn.UNIQUE(RadiatorDatabase[Type])</f>
         <v>-</v>
       </c>
-      <c r="M2" t="str" cm="1">
-        <f t="array" ref="M2:M6">_xlfn.UNIQUE(RadiatorDatabase[Subtype])</f>
+      <c r="N2" t="str" cm="1">
+        <f t="array" ref="N2:N10">_xlfn.UNIQUE(RadiatorDatabase[Subtype])</f>
         <v>-</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1000x600</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>600</v>
-      </c>
       <c r="E3">
+        <v>600</v>
+      </c>
+      <c r="F3">
         <v>1000</v>
       </c>
-      <c r="F3">
-        <v>1.3</v>
-      </c>
       <c r="G3">
+        <v>1.3</v>
+      </c>
+      <c r="H3">
         <v>1732</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>99.65</v>
       </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
         <v>Modern</v>
       </c>
-      <c r="M3" t="str">
+      <c r="N3" t="str">
         <v>K2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>599</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>999</v>
       </c>
-      <c r="F4">
-        <v>1.3</v>
-      </c>
       <c r="G4">
+        <v>1.3</v>
+      </c>
+      <c r="H4">
         <v>6000</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>1234</v>
       </c>
       <c r="M4" t="str">
+        <v>Column</v>
+      </c>
+      <c r="N4" t="str">
         <v>K1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1100x600</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>600</v>
-      </c>
       <c r="E5">
+        <v>600</v>
+      </c>
+      <c r="F5">
         <v>1100</v>
       </c>
-      <c r="F5">
-        <f>F3</f>
-        <v>1.3</v>
-      </c>
       <c r="G5">
+        <f>G3</f>
+        <v>1.3</v>
+      </c>
+      <c r="H5">
         <v>1905</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>109.61</v>
       </c>
       <c r="M5" t="str">
+        <v>Coumn</v>
+      </c>
+      <c r="N5" t="str">
         <v>P+</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1200x600</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>600</v>
-      </c>
       <c r="E6">
+        <v>600</v>
+      </c>
+      <c r="F6">
         <v>1200</v>
       </c>
-      <c r="F6">
-        <f t="shared" ref="F6:F69" si="0">F5</f>
-        <v>1.3</v>
-      </c>
       <c r="G6">
+        <f t="shared" ref="G6:G69" si="0">G5</f>
+        <v>1.3</v>
+      </c>
+      <c r="H6">
         <v>2078</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>119.57</v>
       </c>
-      <c r="M6" t="str">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="str">
         <v>K3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x900x600</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="D7">
-        <v>600</v>
-      </c>
       <c r="E7">
+        <v>600</v>
+      </c>
+      <c r="F7">
         <v>900</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H7">
         <v>1559</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>93.42</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x800x600</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="D8">
-        <v>600</v>
-      </c>
       <c r="E8">
+        <v>600</v>
+      </c>
+      <c r="F8">
         <v>800</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H8">
         <v>1386</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>86.36</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1800x600</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="D9">
-        <v>600</v>
-      </c>
       <c r="E9">
+        <v>600</v>
+      </c>
+      <c r="F9">
         <v>1800</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H9">
         <v>3118</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>198.04</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1600x600</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="D10">
-        <v>600</v>
-      </c>
       <c r="E10">
+        <v>600</v>
+      </c>
+      <c r="F10">
         <v>1600</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H10">
         <v>2771</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>176.02</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1400x600</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
         <v>3</v>
       </c>
-      <c r="D11">
-        <v>600</v>
-      </c>
       <c r="E11">
+        <v>600</v>
+      </c>
+      <c r="F11">
         <v>1400</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G11">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H11">
         <v>2425</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>154.06</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1200x450</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>450</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1200</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G12">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H12">
         <v>1645</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>109.61</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1000x450</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>450</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1000</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G13">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H13">
         <v>1371</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>91.36</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1100x450</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>450</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1100</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G14">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H14">
         <v>1508</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>100.52</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x700x600</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
         <v>3</v>
       </c>
-      <c r="D15">
-        <v>600</v>
-      </c>
       <c r="E15">
+        <v>600</v>
+      </c>
+      <c r="F15">
         <v>700</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G15">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H15">
         <v>1212</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>81.84</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x900x450</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
         <v>3</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>450</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>900</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H16">
         <v>1234</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>85.67</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x600x600</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
         <v>3</v>
       </c>
-      <c r="D17">
-        <v>600</v>
-      </c>
       <c r="E17">
         <v>600</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
+        <v>600</v>
       </c>
       <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H17">
         <v>1039</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>74.739999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x800x450</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
         <v>3</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>450</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>800</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G18">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H18">
         <v>1097</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>79.19</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x700x600</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
         <v>1</v>
       </c>
-      <c r="D19">
-        <v>600</v>
-      </c>
       <c r="E19">
+        <v>600</v>
+      </c>
+      <c r="F19">
         <v>700</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G19">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H19">
         <v>686</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>49.78</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x900x600</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
         <v>1</v>
       </c>
-      <c r="D20">
-        <v>600</v>
-      </c>
       <c r="E20">
+        <v>600</v>
+      </c>
+      <c r="F20">
         <v>900</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G20">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H20">
         <v>882</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>64.02</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1200x600</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
         <v>1</v>
       </c>
-      <c r="D21">
-        <v>600</v>
-      </c>
       <c r="E21">
+        <v>600</v>
+      </c>
+      <c r="F21">
         <v>1200</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G21">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H21">
         <v>1176</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>85.36</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x600x600</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
         <v>1</v>
       </c>
-      <c r="D22">
-        <v>600</v>
-      </c>
       <c r="E22">
         <v>600</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
+        <v>600</v>
       </c>
       <c r="G22">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H22">
         <v>588</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>42.69</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1400x600</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
         <v>1</v>
       </c>
-      <c r="D23">
-        <v>600</v>
-      </c>
       <c r="E23">
+        <v>600</v>
+      </c>
+      <c r="F23">
         <v>1400</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H23">
         <v>1372</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>99.61</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1600x600</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
         <v>1</v>
       </c>
-      <c r="D24">
-        <v>600</v>
-      </c>
       <c r="E24">
+        <v>600</v>
+      </c>
+      <c r="F24">
         <v>1600</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G24">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H24">
         <v>1568</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>113.84</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1100x600</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
         <v>1</v>
       </c>
-      <c r="D25">
-        <v>600</v>
-      </c>
       <c r="E25">
+        <v>600</v>
+      </c>
+      <c r="F25">
         <v>1100</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G25">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H25">
         <v>1078</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>78.27</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x800x600</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
         <v>1</v>
       </c>
-      <c r="D26">
-        <v>600</v>
-      </c>
       <c r="E26">
+        <v>600</v>
+      </c>
+      <c r="F26">
         <v>800</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G26">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H26">
         <v>784</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>56.94</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1000x600</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
         <v>1</v>
       </c>
-      <c r="D27">
-        <v>600</v>
-      </c>
       <c r="E27">
+        <v>600</v>
+      </c>
+      <c r="F27">
         <v>1000</v>
       </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G27">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H27">
         <v>980</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>71.739999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1600x450</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
         <v>3</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>450</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1600</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G28">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H28">
         <v>2194</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>161.37</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1800x450</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
         <v>3</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>450</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1800</v>
       </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G29">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H29">
         <v>2468</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>181.58</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1400x450</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
         <v>3</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>450</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1400</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G30">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H30">
         <v>1919</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>141.21</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x2000x450</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
         <v>3</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>450</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>2000</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G31">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H31">
         <v>2742</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>209.8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x700x450</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
         <v>3</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>450</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>700</v>
       </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G32">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H32">
         <v>960</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <v>74.599999999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x500x600</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
         <v>3</v>
       </c>
-      <c r="D33">
-        <v>600</v>
-      </c>
       <c r="E33">
+        <v>600</v>
+      </c>
+      <c r="F33">
         <v>500</v>
       </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G33">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H33">
         <v>866</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
         <v>67.489999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1000x700</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
         <v>3</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>700</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1000</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G34">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H34">
         <v>1961</v>
       </c>
-      <c r="H34" s="1">
+      <c r="I34" s="1">
         <v>154.36000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1800x600</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
         <v>1</v>
       </c>
-      <c r="D35">
-        <v>600</v>
-      </c>
       <c r="E35">
+        <v>600</v>
+      </c>
+      <c r="F35">
         <v>1800</v>
       </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G35">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H35">
         <v>1764</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
         <v>139.06</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x500x600</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
         <v>1</v>
       </c>
-      <c r="D36">
-        <v>600</v>
-      </c>
       <c r="E36">
+        <v>600</v>
+      </c>
+      <c r="F36">
         <v>500</v>
       </c>
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G36">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H36">
         <v>490</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <v>40.659999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x600x450</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
         <v>3</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>450</v>
       </c>
-      <c r="E37">
-        <v>600</v>
-      </c>
       <c r="F37">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
+        <v>600</v>
       </c>
       <c r="G37">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H37">
         <v>823</v>
       </c>
-      <c r="H37" s="1">
+      <c r="I37" s="1">
         <v>68.5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x400x600</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
         <v>3</v>
       </c>
-      <c r="D38">
-        <v>600</v>
-      </c>
       <c r="E38">
+        <v>600</v>
+      </c>
+      <c r="F38">
         <v>400</v>
       </c>
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G38">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H38">
         <v>693</v>
       </c>
-      <c r="H38" s="1">
+      <c r="I38" s="1">
         <v>58.14</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1100x700</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
         <v>3</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>700</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>1100</v>
       </c>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G39">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H39">
         <v>2157</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <v>181.9</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1200x700</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
         <v>3</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>700</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>1200</v>
       </c>
-      <c r="F40">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G40">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H40">
         <v>2353</v>
       </c>
-      <c r="H40" s="1">
+      <c r="I40" s="1">
         <v>198.48</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x2200x450</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
         <v>3</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>450</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>2200</v>
       </c>
-      <c r="F41">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G41">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H41">
         <v>3016</v>
       </c>
-      <c r="H41" s="1">
+      <c r="I41" s="1">
         <v>257.01</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x2400x450</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
         <v>3</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>450</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>2400</v>
       </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G42">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H42">
         <v>3290</v>
       </c>
-      <c r="H42" s="1">
+      <c r="I42" s="1">
         <v>280.38</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1100x450</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
         <v>1</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>450</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>1100</v>
       </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G43">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H43">
         <v>832</v>
       </c>
-      <c r="H43" s="1">
+      <c r="I43" s="1">
         <v>71.739999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x800x450</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
         <v>1</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>450</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>800</v>
       </c>
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G44">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H44">
         <v>605</v>
       </c>
-      <c r="H44" s="1">
+      <c r="I44" s="1">
         <v>52.17</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1600x450</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
         <v>1</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>450</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>1600</v>
       </c>
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G45">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H45">
         <v>1210</v>
       </c>
-      <c r="H45" s="1">
+      <c r="I45" s="1">
         <v>104.34</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x600x450</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
         <v>1</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>450</v>
       </c>
-      <c r="E46">
-        <v>600</v>
-      </c>
       <c r="F46">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
+        <v>600</v>
       </c>
       <c r="G46">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H46">
         <v>454</v>
       </c>
-      <c r="H46" s="1">
+      <c r="I46" s="1">
         <v>39.15</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1000x450</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
         <v>1</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>450</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>1000</v>
       </c>
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G47">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H47">
         <v>756</v>
       </c>
-      <c r="H47" s="1">
+      <c r="I47" s="1">
         <v>65.2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1400x450</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
         <v>1</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>450</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>1400</v>
       </c>
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G48">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H48">
         <v>1058</v>
       </c>
-      <c r="H48" s="1">
+      <c r="I48" s="1">
         <v>91.29</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x900x450</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
         <v>1</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>450</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>900</v>
       </c>
-      <c r="F49">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G49">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H49">
         <v>680</v>
       </c>
-      <c r="H49" s="1">
+      <c r="I49" s="1">
         <v>58.68</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x700x450</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
         <v>1</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>450</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>700</v>
       </c>
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G50">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H50">
         <v>529</v>
       </c>
-      <c r="H50" s="1">
+      <c r="I50" s="1">
         <v>45.65</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1200x450</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
         <v>1</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>450</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>1200</v>
       </c>
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G51">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H51">
         <v>907</v>
       </c>
-      <c r="H51" s="1">
+      <c r="I51" s="1">
         <v>78.27</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1000x300</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
         <v>3</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>300</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>1000</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G52">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H52">
         <v>982</v>
       </c>
-      <c r="H52" s="1">
+      <c r="I52" s="1">
         <v>85.18</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x2000x600</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
         <v>3</v>
       </c>
-      <c r="D53">
-        <v>600</v>
-      </c>
       <c r="E53">
+        <v>600</v>
+      </c>
+      <c r="F53">
         <v>2000</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G53">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H53">
         <v>3464</v>
       </c>
-      <c r="H53" s="1">
+      <c r="I53" s="1">
         <v>303.12</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x900x700</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
         <v>3</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>700</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>900</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G54">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H54">
         <v>1765</v>
       </c>
-      <c r="H54" s="1">
+      <c r="I54" s="1">
         <v>155.07</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1500x300</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
         <v>3</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>300</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>1500</v>
       </c>
-      <c r="F55">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G55">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H55">
         <v>1473</v>
       </c>
-      <c r="H55" s="1">
+      <c r="I55" s="1">
         <v>130.91</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x500x450</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
         <v>3</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>450</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>500</v>
       </c>
-      <c r="F56">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G56">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H56">
         <v>686</v>
       </c>
-      <c r="H56" s="1">
+      <c r="I56" s="1">
         <v>61.83</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x800x700</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
         <v>3</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>700</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>800</v>
       </c>
-      <c r="F57">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G57">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H57">
         <v>1569</v>
       </c>
-      <c r="H57" s="1">
+      <c r="I57" s="1">
         <v>143.31</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x2000x300</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
         <v>3</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>300</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>2000</v>
       </c>
-      <c r="F58">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G58">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H58">
         <v>1964</v>
       </c>
-      <c r="H58" s="1">
+      <c r="I58" s="1">
         <v>181.53</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1600x700</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
         <v>3</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>700</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>1600</v>
       </c>
-      <c r="F59">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G59">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H59">
         <v>3138</v>
       </c>
-      <c r="H59" s="1">
+      <c r="I59" s="1">
         <v>292.18</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1800x700</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
         <v>3</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>700</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>1800</v>
       </c>
-      <c r="F60">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G60">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H60">
         <v>3530</v>
       </c>
-      <c r="H60" s="1">
+      <c r="I60" s="1">
         <v>328.68</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1400x700</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
         <v>3</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>700</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>1400</v>
       </c>
-      <c r="F61">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G61">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H61">
         <v>2745</v>
       </c>
-      <c r="H61" s="1">
+      <c r="I61" s="1">
         <v>255.64</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x400x600</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
         <v>1</v>
       </c>
-      <c r="D62">
-        <v>600</v>
-      </c>
       <c r="E62">
+        <v>600</v>
+      </c>
+      <c r="F62">
         <v>400</v>
       </c>
-      <c r="F62">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G62">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H62">
         <v>392</v>
       </c>
-      <c r="H62" s="1">
+      <c r="I62" s="1">
         <v>36.619999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxP+x1000x300</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
         <v>2</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>300</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>1000</v>
       </c>
-      <c r="F63">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G63">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H63">
         <v>745</v>
       </c>
-      <c r="H63" s="1">
+      <c r="I63" s="1">
         <v>71.739999999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x2000x700</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
         <v>3</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>700</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>2000</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G64">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H64">
         <v>3922</v>
       </c>
-      <c r="H64" s="1">
+      <c r="I64" s="1">
         <v>379.84</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x400x450</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
         <v>3</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>450</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>400</v>
       </c>
-      <c r="F65">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G65">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H65">
         <v>548</v>
       </c>
-      <c r="H65" s="1">
+      <c r="I65" s="1">
         <v>53.29</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x700x700</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
         <v>3</v>
-      </c>
-      <c r="D66">
-        <v>700</v>
       </c>
       <c r="E66">
         <v>700</v>
       </c>
       <c r="F66">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
+        <v>700</v>
       </c>
       <c r="G66">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H66">
         <v>1373</v>
       </c>
-      <c r="H66" s="1">
+      <c r="I66" s="1">
         <v>135.04</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1200x500</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
         <v>9</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>500</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>1200</v>
       </c>
-      <c r="F67">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G67">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H67">
         <v>2467</v>
       </c>
-      <c r="H67" s="1">
+      <c r="I67" s="1">
         <v>243</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxP+x1000x700</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
         <v>2</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>700</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>1000</v>
       </c>
-      <c r="F68">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G68">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H68">
         <v>1530</v>
       </c>
-      <c r="H68" s="1">
+      <c r="I68" s="1">
         <v>150.74</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1100x600</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
         <v>9</v>
       </c>
-      <c r="D69">
-        <v>600</v>
-      </c>
       <c r="E69">
+        <v>600</v>
+      </c>
+      <c r="F69">
         <v>1100</v>
       </c>
-      <c r="F69">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
       <c r="G69">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H69">
         <v>2628</v>
       </c>
-      <c r="H69" s="1">
+      <c r="I69" s="1">
         <v>259</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x500x450</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
         <v>1</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>450</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>500</v>
       </c>
-      <c r="F70">
-        <f t="shared" ref="F70:F133" si="1">F69</f>
-        <v>1.3</v>
-      </c>
       <c r="G70">
+        <f t="shared" ref="G70:G133" si="1">G69</f>
+        <v>1.3</v>
+      </c>
+      <c r="H70">
         <v>378</v>
       </c>
-      <c r="H70" s="1">
+      <c r="I70" s="1">
         <v>37.26</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1100x500</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
         <v>9</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>500</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>1100</v>
       </c>
-      <c r="F71">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G71">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H71">
         <v>2262</v>
       </c>
-      <c r="H71" s="1">
+      <c r="I71" s="1">
         <v>223</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1200x600</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
         <v>9</v>
       </c>
-      <c r="D72">
-        <v>600</v>
-      </c>
       <c r="E72">
+        <v>600</v>
+      </c>
+      <c r="F72">
         <v>1200</v>
       </c>
-      <c r="F72">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G72">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H72">
         <v>2867</v>
       </c>
-      <c r="H72" s="1">
+      <c r="I72" s="1">
         <v>283</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1000x500</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
         <v>9</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>500</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>1000</v>
       </c>
-      <c r="F73">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G73">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H73">
         <v>2056</v>
       </c>
-      <c r="H73" s="1">
+      <c r="I73" s="1">
         <v>203</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1000x600</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
         <v>9</v>
       </c>
-      <c r="D74">
-        <v>600</v>
-      </c>
       <c r="E74">
+        <v>600</v>
+      </c>
+      <c r="F74">
         <v>1000</v>
       </c>
-      <c r="F74">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G74">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H74">
         <v>2389</v>
       </c>
-      <c r="H74" s="1">
+      <c r="I74" s="1">
         <v>236</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxP+x1200x700</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s">
         <v>2</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>700</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>1200</v>
       </c>
-      <c r="F75">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G75">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H75">
         <v>1836</v>
       </c>
-      <c r="H75" s="1">
+      <c r="I75" s="1">
         <v>181.86</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x2200x600</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
         <v>3</v>
       </c>
-      <c r="D76">
-        <v>600</v>
-      </c>
       <c r="E76">
+        <v>600</v>
+      </c>
+      <c r="F76">
         <v>2200</v>
       </c>
-      <c r="F76">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G76">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H76">
         <v>3810</v>
       </c>
-      <c r="H76" s="1">
+      <c r="I76" s="1">
         <v>378.33</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x2400x600</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
         <v>3</v>
       </c>
-      <c r="D77">
-        <v>600</v>
-      </c>
       <c r="E77">
+        <v>600</v>
+      </c>
+      <c r="F77">
         <v>2400</v>
       </c>
-      <c r="F77">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G77">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H77">
         <v>4157</v>
       </c>
-      <c r="H77" s="1">
+      <c r="I77" s="1">
         <v>412.94</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x2000x600</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
         <v>1</v>
       </c>
-      <c r="D78">
-        <v>600</v>
-      </c>
       <c r="E78">
+        <v>600</v>
+      </c>
+      <c r="F78">
         <v>2000</v>
       </c>
-      <c r="F78">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G78">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H78">
         <v>1960</v>
       </c>
-      <c r="H78" s="1">
+      <c r="I78" s="1">
         <v>195.09</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x500x300</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" t="s">
         <v>3</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>300</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>500</v>
       </c>
-      <c r="F79">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G79">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H79">
         <v>491</v>
       </c>
-      <c r="H79" s="1">
+      <c r="I79" s="1">
         <v>48.99</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1500x300</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
         <v>1</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>300</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>1500</v>
       </c>
-      <c r="F80">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G80">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H80">
         <v>764</v>
       </c>
-      <c r="H80" s="1">
+      <c r="I80" s="1">
         <v>76.23</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxP+x900x700</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
         <v>2</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>700</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>900</v>
       </c>
-      <c r="F81">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G81">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H81">
         <v>1377</v>
       </c>
-      <c r="H81" s="1">
+      <c r="I81" s="1">
         <v>137.72999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxP+x800x700</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
         <v>2</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>700</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>800</v>
       </c>
-      <c r="F82">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G82">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H82">
         <v>1224</v>
       </c>
-      <c r="H82" s="1">
+      <c r="I82" s="1">
         <v>124.55</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x900x500</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
         <v>9</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>500</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>900</v>
       </c>
-      <c r="F83">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G83">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H83">
         <v>1850</v>
       </c>
-      <c r="H83" s="1">
+      <c r="I83" s="1">
         <v>190</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x900x600</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
         <v>9</v>
       </c>
-      <c r="D84">
-        <v>600</v>
-      </c>
       <c r="E84">
+        <v>600</v>
+      </c>
+      <c r="F84">
         <v>900</v>
       </c>
-      <c r="F84">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G84">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H84">
         <v>2150</v>
       </c>
-      <c r="H84" s="1">
+      <c r="I84" s="1">
         <v>221</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxP+x700x700</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" t="s">
         <v>2</v>
-      </c>
-      <c r="D85">
-        <v>700</v>
       </c>
       <c r="E85">
         <v>700</v>
       </c>
       <c r="F85">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
+        <v>700</v>
       </c>
       <c r="G85">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H85">
         <v>1071</v>
       </c>
-      <c r="H85" s="1">
+      <c r="I85" s="1">
         <v>112.74</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1000x300</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
         <v>1</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>300</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>1000</v>
       </c>
-      <c r="F86">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G86">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H86">
         <v>509</v>
       </c>
-      <c r="H86" s="1">
+      <c r="I86" s="1">
         <v>53.62</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x600x700</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s">
         <v>3</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>700</v>
       </c>
-      <c r="E87">
-        <v>600</v>
-      </c>
       <c r="F87">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
+        <v>600</v>
       </c>
       <c r="G87">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H87">
         <v>1177</v>
       </c>
-      <c r="H87" s="1">
+      <c r="I87" s="1">
         <v>124.02</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x800x700</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
         <v>1</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>700</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>800</v>
       </c>
-      <c r="F88">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G88">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H88">
         <v>894</v>
       </c>
-      <c r="H88" s="1">
+      <c r="I88" s="1">
         <v>94.46</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1100x700</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" t="s">
         <v>1</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>700</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>1100</v>
       </c>
-      <c r="F89">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G89">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H89">
         <v>1229</v>
       </c>
-      <c r="H89" s="1">
+      <c r="I89" s="1">
         <v>129.87</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x700x700</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
         <v>1</v>
-      </c>
-      <c r="D90">
-        <v>700</v>
       </c>
       <c r="E90">
         <v>700</v>
       </c>
       <c r="F90">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
+        <v>700</v>
       </c>
       <c r="G90">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H90">
         <v>782</v>
       </c>
-      <c r="H90" s="1">
+      <c r="I90" s="1">
         <v>82.64</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1000x700</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s">
         <v>1</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>700</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>1000</v>
       </c>
-      <c r="F91">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G91">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H91">
         <v>1117</v>
       </c>
-      <c r="H91" s="1">
+      <c r="I91" s="1">
         <v>118.06</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x600x700</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s">
         <v>1</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>700</v>
       </c>
-      <c r="E92">
-        <v>600</v>
-      </c>
       <c r="F92">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
+        <v>600</v>
       </c>
       <c r="G92">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H92">
         <v>670</v>
       </c>
-      <c r="H92" s="1">
+      <c r="I92" s="1">
         <v>70.819999999999993</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1400x700</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" t="s">
         <v>1</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>700</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>1400</v>
       </c>
-      <c r="F93">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G93">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H93">
         <v>1564</v>
       </c>
-      <c r="H93" s="1">
+      <c r="I93" s="1">
         <v>165.32</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1600x700</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" t="s">
         <v>1</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>700</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>1600</v>
       </c>
-      <c r="F94">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G94">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H94">
         <v>1787</v>
       </c>
-      <c r="H94" s="1">
+      <c r="I94" s="1">
         <v>188.91</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1200x700</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
         <v>1</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>700</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>1200</v>
       </c>
-      <c r="F95">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G95">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H95">
         <v>1340</v>
       </c>
-      <c r="H95" s="1">
+      <c r="I95" s="1">
         <v>141.69</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x900x700</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
         <v>1</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>700</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>900</v>
       </c>
-      <c r="F96">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G96">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H96">
         <v>1005</v>
       </c>
-      <c r="H96" s="1">
+      <c r="I96" s="1">
         <v>106.28</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxP+x1400x700</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" t="s">
         <v>2</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>700</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>1400</v>
       </c>
-      <c r="F97">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G97">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H97">
         <v>2142</v>
       </c>
-      <c r="H97" s="1">
+      <c r="I97" s="1">
         <v>227.63</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x800x600</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" t="s">
         <v>9</v>
       </c>
-      <c r="D98">
-        <v>600</v>
-      </c>
       <c r="E98">
+        <v>600</v>
+      </c>
+      <c r="F98">
         <v>800</v>
       </c>
-      <c r="F98">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G98">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H98">
         <v>1911</v>
       </c>
-      <c r="H98" s="1">
+      <c r="I98" s="1">
         <v>204</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x800x500</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" t="s">
         <v>9</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>500</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>800</v>
       </c>
-      <c r="F99">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G99">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H99">
         <v>1645</v>
       </c>
-      <c r="H99" s="1">
+      <c r="I99" s="1">
         <v>176</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x2400x600</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
         <v>1</v>
       </c>
-      <c r="D100">
-        <v>600</v>
-      </c>
       <c r="E100">
+        <v>600</v>
+      </c>
+      <c r="F100">
         <v>2400</v>
       </c>
-      <c r="F100">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G100">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H100">
         <v>2352</v>
       </c>
-      <c r="H100" s="1">
+      <c r="I100" s="1">
         <v>253.72</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x2200x600</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" t="s">
         <v>1</v>
       </c>
-      <c r="D101">
-        <v>600</v>
-      </c>
       <c r="E101">
+        <v>600</v>
+      </c>
+      <c r="F101">
         <v>2200</v>
       </c>
-      <c r="F101">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G101">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H101">
         <v>2156</v>
       </c>
-      <c r="H101" s="1">
+      <c r="I101" s="1">
         <v>232.65</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxP+x1100x700</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" t="s">
         <v>2</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>700</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>1100</v>
       </c>
-      <c r="F102">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G102">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H102">
         <v>1683</v>
       </c>
-      <c r="H102" s="1">
+      <c r="I102" s="1">
         <v>181.86</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x2400x450</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" t="s">
         <v>1</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>450</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>2400</v>
       </c>
-      <c r="F103">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G103">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H103">
         <v>1814</v>
       </c>
-      <c r="H103" s="1">
+      <c r="I103" s="1">
         <v>196.23</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxP+x600x700</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
         <v>2</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>700</v>
       </c>
-      <c r="E104">
-        <v>600</v>
-      </c>
       <c r="F104">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
+        <v>600</v>
       </c>
       <c r="G104">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H104">
         <v>918</v>
       </c>
-      <c r="H104" s="1">
+      <c r="I104" s="1">
         <v>99.86</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1800x500</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" t="s">
         <v>9</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>500</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>1800</v>
       </c>
-      <c r="F105">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G105">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H105">
         <v>3701</v>
       </c>
-      <c r="H105" s="1">
+      <c r="I105" s="1">
         <v>403</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1800x600</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="s">
         <v>9</v>
       </c>
-      <c r="D106">
-        <v>600</v>
-      </c>
       <c r="E106">
+        <v>600</v>
+      </c>
+      <c r="F106">
         <v>1800</v>
       </c>
-      <c r="F106">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G106">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H106">
         <v>4300</v>
       </c>
-      <c r="H106" s="1">
+      <c r="I106" s="1">
         <v>469</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1400x500</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" t="s">
         <v>9</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>500</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>1400</v>
       </c>
-      <c r="F107">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G107">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H107">
         <v>2878</v>
       </c>
-      <c r="H107" s="1">
+      <c r="I107" s="1">
         <v>314</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1600x600</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" t="s">
         <v>9</v>
       </c>
-      <c r="D108">
-        <v>600</v>
-      </c>
       <c r="E108">
+        <v>600</v>
+      </c>
+      <c r="F108">
         <v>1600</v>
       </c>
-      <c r="F108">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G108">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H108">
         <v>3822</v>
       </c>
-      <c r="H108" s="1">
+      <c r="I108" s="1">
         <v>417</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1400x600</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" t="s">
         <v>9</v>
       </c>
-      <c r="D109">
-        <v>600</v>
-      </c>
       <c r="E109">
+        <v>600</v>
+      </c>
+      <c r="F109">
         <v>1400</v>
       </c>
-      <c r="F109">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G109">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H109">
         <v>3345</v>
       </c>
-      <c r="H109" s="1">
+      <c r="I109" s="1">
         <v>365</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1600x500</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" t="s">
         <v>9</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>500</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>1600</v>
       </c>
-      <c r="F110">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G110">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H110">
         <v>3290</v>
       </c>
-      <c r="H110" s="1">
+      <c r="I110" s="1">
         <v>359</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x400x450</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" t="s">
         <v>1</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>450</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>400</v>
       </c>
-      <c r="F111">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G111">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H111">
         <v>302</v>
       </c>
-      <c r="H111" s="1">
+      <c r="I111" s="1">
         <v>33.53</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1800x450</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" t="s">
         <v>1</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>450</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>1800</v>
       </c>
-      <c r="F112">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G112">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H112">
         <v>1361</v>
       </c>
-      <c r="H112" s="1">
+      <c r="I112" s="1">
         <v>154.74</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x500x700</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" t="s">
         <v>3</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>700</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>500</v>
       </c>
-      <c r="F113">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G113">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H113">
         <v>981</v>
       </c>
-      <c r="H113" s="1">
+      <c r="I113" s="1">
         <v>111.95</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1800x700</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" t="s">
         <v>1</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>700</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>1800</v>
       </c>
-      <c r="F114">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G114">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H114">
         <v>2011</v>
       </c>
-      <c r="H114" s="1">
+      <c r="I114" s="1">
         <v>230.73</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A115" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x700x500</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" t="s">
         <v>9</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>500</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>700</v>
       </c>
-      <c r="F115">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G115">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H115">
         <v>1439</v>
       </c>
-      <c r="H115" s="1">
+      <c r="I115" s="1">
         <v>166</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A116" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x700x600</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" t="s">
         <v>9</v>
       </c>
-      <c r="D116">
-        <v>600</v>
-      </c>
       <c r="E116">
+        <v>600</v>
+      </c>
+      <c r="F116">
         <v>700</v>
       </c>
-      <c r="F116">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G116">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H116">
         <v>1672</v>
       </c>
-      <c r="H116" s="1">
+      <c r="I116" s="1">
         <v>193</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x2000x450</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C117" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" t="s">
         <v>1</v>
       </c>
-      <c r="D117">
+      <c r="E117">
         <v>450</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>2000</v>
       </c>
-      <c r="F117">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G117">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H117">
         <v>1512</v>
       </c>
-      <c r="H117" s="1">
+      <c r="I117" s="1">
         <v>175.38</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxP+x1500x300</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" t="s">
         <v>2</v>
       </c>
-      <c r="D118">
+      <c r="E118">
         <v>300</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>1500</v>
       </c>
-      <c r="F118">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G118">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H118">
         <v>1118</v>
       </c>
-      <c r="H118" s="1">
+      <c r="I118" s="1">
         <v>130.16</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A119" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxP+x500x300</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C119" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" t="s">
         <v>2</v>
       </c>
-      <c r="D119">
+      <c r="E119">
         <v>300</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>500</v>
       </c>
-      <c r="F119">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G119">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H119">
         <v>373</v>
       </c>
-      <c r="H119" s="1">
+      <c r="I119" s="1">
         <v>44.15</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A120" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1100x700</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C120" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" t="s">
         <v>9</v>
       </c>
-      <c r="D120">
+      <c r="E120">
         <v>700</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>1100</v>
       </c>
-      <c r="F120">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G120">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H120">
         <v>2983</v>
       </c>
-      <c r="H120" s="1">
+      <c r="I120" s="1">
         <v>355</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A121" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1000x700</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C121" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" t="s">
         <v>9</v>
       </c>
-      <c r="D121">
+      <c r="E121">
         <v>700</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>1000</v>
       </c>
-      <c r="F121">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G121">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H121">
         <v>2712</v>
       </c>
-      <c r="H121" s="1">
+      <c r="I121" s="1">
         <v>323</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A122" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1200x700</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" t="s">
         <v>9</v>
       </c>
-      <c r="D122">
+      <c r="E122">
         <v>700</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>1200</v>
       </c>
-      <c r="F122">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G122">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H122">
         <v>3254</v>
       </c>
-      <c r="H122" s="1">
+      <c r="I122" s="1">
         <v>388</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A123" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxP+x400x700</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C123" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" t="s">
         <v>2</v>
       </c>
-      <c r="D123">
+      <c r="E123">
         <v>700</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>400</v>
       </c>
-      <c r="F123">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G123">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H123">
         <v>612</v>
       </c>
-      <c r="H123" s="1">
+      <c r="I123" s="1">
         <v>72.98</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A124" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x2000x700</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C124" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" t="s">
         <v>1</v>
       </c>
-      <c r="D124">
+      <c r="E124">
         <v>700</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>2000</v>
       </c>
-      <c r="F124">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G124">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H124">
         <v>2234</v>
       </c>
-      <c r="H124" s="1">
+      <c r="I124" s="1">
         <v>266.62</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A125" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x500x700</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" t="s">
         <v>1</v>
       </c>
-      <c r="D125">
+      <c r="E125">
         <v>700</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>500</v>
       </c>
-      <c r="F125">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G125">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H125">
         <v>559</v>
       </c>
-      <c r="H125" s="1">
+      <c r="I125" s="1">
         <v>67.47</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A126" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxP+x500x700</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" t="s">
         <v>2</v>
       </c>
-      <c r="D126">
+      <c r="E126">
         <v>700</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>500</v>
       </c>
-      <c r="F126">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G126">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H126">
         <v>765</v>
       </c>
-      <c r="H126" s="1">
+      <c r="I126" s="1">
         <v>92.68</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A127" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x400x700</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" t="s">
         <v>3</v>
       </c>
-      <c r="D127">
+      <c r="E127">
         <v>700</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>400</v>
       </c>
-      <c r="F127">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G127">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H127">
         <v>784</v>
       </c>
-      <c r="H127" s="1">
+      <c r="I127" s="1">
         <v>96.46</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A128" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x600x600</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C128" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" t="s">
         <v>9</v>
       </c>
-      <c r="D128">
-        <v>600</v>
-      </c>
       <c r="E128">
         <v>600</v>
       </c>
       <c r="F128">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
+        <v>600</v>
       </c>
       <c r="G128">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H128">
         <v>1433</v>
       </c>
-      <c r="H128" s="1">
+      <c r="I128" s="1">
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A129" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x600x500</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C129" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" t="s">
         <v>9</v>
       </c>
-      <c r="D129">
+      <c r="E129">
         <v>500</v>
       </c>
-      <c r="E129">
-        <v>600</v>
-      </c>
       <c r="F129">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
+        <v>600</v>
       </c>
       <c r="G129">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H129">
         <v>1234</v>
       </c>
-      <c r="H129" s="1">
+      <c r="I129" s="1">
         <v>152.51</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A130" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x900x700</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C130" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" t="s">
         <v>9</v>
       </c>
-      <c r="D130">
+      <c r="E130">
         <v>700</v>
       </c>
-      <c r="E130">
+      <c r="F130">
         <v>900</v>
       </c>
-      <c r="F130">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G130">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H130">
         <v>2441</v>
       </c>
-      <c r="H130" s="1">
+      <c r="I130" s="1">
         <v>303</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A131" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x500x300</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" t="s">
         <v>1</v>
       </c>
-      <c r="D131">
+      <c r="E131">
         <v>300</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>500</v>
       </c>
-      <c r="F131">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G131">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H131">
         <v>255</v>
       </c>
-      <c r="H131" s="1">
+      <c r="I131" s="1">
         <v>32.85</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A132" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x800x700</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C132" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" t="s">
         <v>9</v>
       </c>
-      <c r="D132">
+      <c r="E132">
         <v>700</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>800</v>
       </c>
-      <c r="F132">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G132">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H132">
         <v>2170</v>
       </c>
-      <c r="H132" s="1">
+      <c r="I132" s="1">
         <v>280</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A133" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x2200x450</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C133" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" t="s">
         <v>1</v>
       </c>
-      <c r="D133">
+      <c r="E133">
         <v>450</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>2200</v>
       </c>
-      <c r="F133">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
       <c r="G133">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H133">
         <v>1663</v>
       </c>
-      <c r="H133" s="1">
+      <c r="I133" s="1">
         <v>218.4</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A134" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1600x700</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" t="s">
         <v>9</v>
       </c>
-      <c r="D134">
+      <c r="E134">
         <v>700</v>
       </c>
-      <c r="E134">
+      <c r="F134">
         <v>1600</v>
       </c>
-      <c r="F134">
-        <f t="shared" ref="F134:F149" si="2">F133</f>
-        <v>1.3</v>
-      </c>
       <c r="G134">
+        <f t="shared" ref="G134:G149" si="2">G133</f>
+        <v>1.3</v>
+      </c>
+      <c r="H134">
         <v>4339</v>
       </c>
-      <c r="H134" s="1">
+      <c r="I134" s="1">
         <v>571</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A135" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1400x700</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" t="s">
         <v>9</v>
       </c>
-      <c r="D135">
+      <c r="E135">
         <v>700</v>
       </c>
-      <c r="E135">
+      <c r="F135">
         <v>1400</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>3797</v>
       </c>
-      <c r="H135" s="1">
+      <c r="I135" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A136" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1800x700</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C136" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" t="s">
         <v>9</v>
       </c>
-      <c r="D136">
+      <c r="E136">
         <v>700</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>1800</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>4882</v>
       </c>
-      <c r="H136" s="1">
+      <c r="I136" s="1">
         <v>643</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A137" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x500x600</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C137" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" t="s">
         <v>9</v>
       </c>
-      <c r="D137">
-        <v>600</v>
-      </c>
       <c r="E137">
+        <v>600</v>
+      </c>
+      <c r="F137">
         <v>500</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>1195</v>
       </c>
-      <c r="H137" s="1">
+      <c r="I137" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A138" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x400x700</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C138" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" t="s">
         <v>1</v>
       </c>
-      <c r="D138">
+      <c r="E138">
         <v>700</v>
       </c>
-      <c r="E138">
+      <c r="F138">
         <v>400</v>
       </c>
-      <c r="F138">
+      <c r="G138">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-      <c r="G138">
+      <c r="H138">
         <v>447</v>
       </c>
-      <c r="H138" s="1">
+      <c r="I138" s="1">
         <v>60.71</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A139" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x2000x700</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C139" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" t="s">
         <v>9</v>
       </c>
-      <c r="D139">
+      <c r="E139">
         <v>700</v>
       </c>
-      <c r="E139">
+      <c r="F139">
         <v>2000</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>5424</v>
       </c>
-      <c r="H139" s="1">
+      <c r="I139" s="1">
         <v>743</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A140" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x700x700</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C140" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" t="s">
         <v>9</v>
-      </c>
-      <c r="D140">
-        <v>700</v>
       </c>
       <c r="E140">
         <v>700</v>
       </c>
       <c r="F140">
+        <v>700</v>
+      </c>
+      <c r="G140">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>1898</v>
       </c>
-      <c r="H140" s="1">
+      <c r="I140" s="1">
         <v>264</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A141" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x400x600</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C141" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" t="s">
         <v>9</v>
       </c>
-      <c r="D141">
-        <v>600</v>
-      </c>
       <c r="E141">
+        <v>600</v>
+      </c>
+      <c r="F141">
         <v>400</v>
       </c>
-      <c r="F141">
+      <c r="G141">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-      <c r="G141">
+      <c r="H141">
         <v>956</v>
       </c>
-      <c r="H141" s="1">
+      <c r="I141" s="1">
         <v>137</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A142" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x600x700</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C142" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" t="s">
         <v>9</v>
       </c>
-      <c r="D142">
+      <c r="E142">
         <v>700</v>
       </c>
-      <c r="E142">
-        <v>600</v>
-      </c>
       <c r="F142">
+        <v>600</v>
+      </c>
+      <c r="G142">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>1627</v>
       </c>
-      <c r="H142" s="1">
+      <c r="I142" s="1">
         <v>242</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A143" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1000x300</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C143" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" t="s">
         <v>9</v>
       </c>
-      <c r="D143">
+      <c r="E143">
         <v>300</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>1000</v>
       </c>
-      <c r="F143">
+      <c r="G143">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-      <c r="G143">
+      <c r="H143">
         <v>1349</v>
       </c>
-      <c r="H143" s="1">
+      <c r="I143" s="1">
         <v>201</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A144" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x2400x500</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C144" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" t="s">
         <v>9</v>
       </c>
-      <c r="D144">
+      <c r="E144">
         <v>500</v>
       </c>
-      <c r="E144">
+      <c r="F144">
         <v>2400</v>
       </c>
-      <c r="F144">
+      <c r="G144">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-      <c r="G144">
+      <c r="H144">
         <v>4934</v>
       </c>
-      <c r="H144" s="1">
+      <c r="I144" s="1">
         <v>741</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A145" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x2000x600</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C145" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" t="s">
         <v>9</v>
       </c>
-      <c r="D145">
-        <v>600</v>
-      </c>
       <c r="E145">
+        <v>600</v>
+      </c>
+      <c r="F145">
         <v>2000</v>
       </c>
-      <c r="F145">
+      <c r="G145">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-      <c r="G145">
+      <c r="H145">
         <v>4778</v>
       </c>
-      <c r="H145" s="1">
+      <c r="I145" s="1">
         <v>718</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A146" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x2000x500</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" t="s">
         <v>9</v>
       </c>
-      <c r="D146">
+      <c r="E146">
         <v>500</v>
       </c>
-      <c r="E146">
+      <c r="F146">
         <v>2000</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-      <c r="G146">
+      <c r="H146">
         <v>4112</v>
       </c>
-      <c r="H146" s="1">
+      <c r="I146" s="1">
         <v>618</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A147" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x2400x600</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C147" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" t="s">
         <v>9</v>
       </c>
-      <c r="D147">
-        <v>600</v>
-      </c>
       <c r="E147">
+        <v>600</v>
+      </c>
+      <c r="F147">
         <v>2400</v>
       </c>
-      <c r="F147">
+      <c r="G147">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-      <c r="G147">
+      <c r="H147">
         <v>5734</v>
       </c>
-      <c r="H147" s="1">
+      <c r="I147" s="1">
         <v>862</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A148" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x2000x300</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C148" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" t="s">
         <v>9</v>
       </c>
-      <c r="D148">
+      <c r="E148">
         <v>300</v>
       </c>
-      <c r="E148">
+      <c r="F148">
         <v>2000</v>
       </c>
-      <c r="F148">
+      <c r="G148">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-      <c r="G148">
+      <c r="H148">
         <v>2698</v>
       </c>
-      <c r="H148" s="1">
+      <c r="I148" s="1">
         <v>428</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A149" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x500x700</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C149" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" t="s">
         <v>9</v>
       </c>
-      <c r="D149">
+      <c r="E149">
         <v>700</v>
       </c>
-      <c r="E149">
+      <c r="F149">
         <v>500</v>
       </c>
-      <c r="F149">
+      <c r="G149">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-      <c r="G149">
+      <c r="H149">
         <v>1356</v>
       </c>
-      <c r="H149" s="1">
+      <c r="I149" s="1">
         <v>219</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H150" s="1"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H151" s="1"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H152" s="1"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H153" s="1"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H154" s="1"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H155" s="1"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H156" s="1"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H157" s="1"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H158" s="1"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H159" s="1"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H160" s="1"/>
-    </row>
-    <row r="161" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H161" s="1"/>
-    </row>
-    <row r="162" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H162" s="1"/>
-    </row>
-    <row r="163" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H163" s="1"/>
-    </row>
-    <row r="164" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H164" s="1"/>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A150" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx2x1042x600</v>
+      </c>
+      <c r="B150" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150">
+        <v>600</v>
+      </c>
+      <c r="F150">
+        <v>1042</v>
+      </c>
+      <c r="G150">
+        <v>1.3</v>
+      </c>
+      <c r="H150">
+        <v>997</v>
+      </c>
+      <c r="I150" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A151" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx2x628x600</v>
+      </c>
+      <c r="B151" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151">
+        <v>600</v>
+      </c>
+      <c r="F151">
+        <v>628</v>
+      </c>
+      <c r="G151">
+        <v>1.3</v>
+      </c>
+      <c r="H151">
+        <v>590</v>
+      </c>
+      <c r="I151" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A152" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx3x812x600</v>
+      </c>
+      <c r="B152" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152">
+        <v>3</v>
+      </c>
+      <c r="E152">
+        <v>600</v>
+      </c>
+      <c r="F152">
+        <v>812</v>
+      </c>
+      <c r="G152">
+        <v>1.3</v>
+      </c>
+      <c r="H152">
+        <v>1035</v>
+      </c>
+      <c r="I152" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A153" s="3" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx2x1226x600</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153">
+        <v>600</v>
+      </c>
+      <c r="F153">
+        <v>1226</v>
+      </c>
+      <c r="G153">
+        <v>1.3</v>
+      </c>
+      <c r="H153">
+        <v>1226</v>
+      </c>
+      <c r="I153" s="1">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A154" s="5" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx2x1190x600</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <v>600</v>
+      </c>
+      <c r="F154">
+        <v>1190</v>
+      </c>
+      <c r="G154">
+        <v>1.3</v>
+      </c>
+      <c r="H154">
+        <v>1141</v>
+      </c>
+      <c r="I154" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A155" s="5" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx2x1410x600</v>
+      </c>
+      <c r="B155" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155">
+        <v>600</v>
+      </c>
+      <c r="F155">
+        <v>1410</v>
+      </c>
+      <c r="G155">
+        <v>1.3</v>
+      </c>
+      <c r="H155">
+        <v>1359</v>
+      </c>
+      <c r="I155" s="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A156" s="5" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx2x1010x600</v>
+      </c>
+      <c r="B156" t="s">
+        <v>20</v>
+      </c>
+      <c r="C156" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156">
+        <v>600</v>
+      </c>
+      <c r="F156">
+        <v>1010</v>
+      </c>
+      <c r="G156">
+        <v>1.3</v>
+      </c>
+      <c r="H156">
+        <v>966</v>
+      </c>
+      <c r="I156" s="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A157" s="5" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx3x812x600</v>
+      </c>
+      <c r="B157" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157">
+        <v>3</v>
+      </c>
+      <c r="E157">
+        <v>600</v>
+      </c>
+      <c r="F157">
+        <v>812</v>
+      </c>
+      <c r="G157">
+        <v>1.3</v>
+      </c>
+      <c r="H157">
+        <v>1035</v>
+      </c>
+      <c r="I157" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A158" s="5" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx3x628x600</v>
+      </c>
+      <c r="B158" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158">
+        <v>3</v>
+      </c>
+      <c r="E158">
+        <v>600</v>
+      </c>
+      <c r="F158">
+        <v>628</v>
+      </c>
+      <c r="G158">
+        <v>1.3</v>
+      </c>
+      <c r="H158">
+        <v>792</v>
+      </c>
+      <c r="I158" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A159" s="5" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx3x1226x600</v>
+      </c>
+      <c r="B159" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159">
+        <v>3</v>
+      </c>
+      <c r="E159">
+        <v>600</v>
+      </c>
+      <c r="F159">
+        <v>1226</v>
+      </c>
+      <c r="G159">
+        <v>1.3</v>
+      </c>
+      <c r="H159">
+        <v>1583</v>
+      </c>
+      <c r="I159" s="1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A160" s="5" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx3x1042x600</v>
+      </c>
+      <c r="B160" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160">
+        <v>3</v>
+      </c>
+      <c r="E160">
+        <v>600</v>
+      </c>
+      <c r="F160">
+        <v>1042</v>
+      </c>
+      <c r="G160">
+        <v>1.3</v>
+      </c>
+      <c r="H160">
+        <v>1340</v>
+      </c>
+      <c r="I160" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A161" s="5" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx3x1190x600</v>
+      </c>
+      <c r="B161" t="s">
+        <v>20</v>
+      </c>
+      <c r="C161" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161">
+        <v>3</v>
+      </c>
+      <c r="E161">
+        <v>600</v>
+      </c>
+      <c r="F161">
+        <v>1190</v>
+      </c>
+      <c r="G161">
+        <v>1.3</v>
+      </c>
+      <c r="H161">
+        <v>1478</v>
+      </c>
+      <c r="I161" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A162" s="5" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx3x650x600</v>
+      </c>
+      <c r="B162" t="s">
+        <v>20</v>
+      </c>
+      <c r="C162" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162">
+        <v>3</v>
+      </c>
+      <c r="E162">
+        <v>600</v>
+      </c>
+      <c r="F162">
+        <v>650</v>
+      </c>
+      <c r="G162">
+        <v>1.3</v>
+      </c>
+      <c r="H162">
+        <v>801</v>
+      </c>
+      <c r="I162" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A163" s="5" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx3x830x600</v>
+      </c>
+      <c r="B163" t="s">
+        <v>20</v>
+      </c>
+      <c r="C163" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163">
+        <v>3</v>
+      </c>
+      <c r="E163">
+        <v>600</v>
+      </c>
+      <c r="F163">
+        <v>830</v>
+      </c>
+      <c r="G163">
+        <v>1.3</v>
+      </c>
+      <c r="H163">
+        <v>1030</v>
+      </c>
+      <c r="I163" s="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A164" s="5" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Coumnx3x1010x600</v>
+      </c>
+      <c r="B164" t="s">
+        <v>20</v>
+      </c>
+      <c r="C164" t="s">
+        <v>21</v>
+      </c>
+      <c r="D164">
+        <v>3</v>
+      </c>
+      <c r="E164">
+        <v>600</v>
+      </c>
+      <c r="F164">
+        <v>1010</v>
+      </c>
+      <c r="G164">
+        <v>1.3</v>
+      </c>
+      <c r="H164">
+        <v>1258</v>
+      </c>
+      <c r="I164" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A165" s="5" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx4x1226x600</v>
+      </c>
+      <c r="B165" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165">
+        <v>4</v>
+      </c>
+      <c r="E165">
+        <v>600</v>
+      </c>
+      <c r="F165">
+        <v>1226</v>
+      </c>
+      <c r="G165">
+        <v>1.3</v>
+      </c>
+      <c r="H165">
+        <v>2079</v>
+      </c>
+      <c r="I165" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A166" s="5" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx4x1042x600</v>
+      </c>
+      <c r="B166" t="s">
+        <v>19</v>
+      </c>
+      <c r="C166" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166">
+        <v>4</v>
+      </c>
+      <c r="E166">
+        <v>600</v>
+      </c>
+      <c r="F166">
+        <v>1042</v>
+      </c>
+      <c r="G166">
+        <v>1.3</v>
+      </c>
+      <c r="H166">
+        <v>1756</v>
+      </c>
+      <c r="I166" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A167" s="5" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx4x812x600</v>
+      </c>
+      <c r="B167" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" t="s">
+        <v>16</v>
+      </c>
+      <c r="D167">
+        <v>4</v>
+      </c>
+      <c r="E167">
+        <v>600</v>
+      </c>
+      <c r="F167">
+        <v>812</v>
+      </c>
+      <c r="G167">
+        <v>1.3</v>
+      </c>
+      <c r="H167">
+        <v>1356</v>
+      </c>
+      <c r="I167" s="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A168" s="5" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx4x628x600</v>
+      </c>
+      <c r="B168" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" t="s">
+        <v>16</v>
+      </c>
+      <c r="D168">
+        <v>4</v>
+      </c>
+      <c r="E168">
+        <v>600</v>
+      </c>
+      <c r="F168">
+        <v>628</v>
+      </c>
+      <c r="G168">
+        <v>1.3</v>
+      </c>
+      <c r="H168">
+        <v>1037</v>
+      </c>
+      <c r="I168" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I169" s="1"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I170" s="1"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I171" s="1"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I172" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Radiator Database.xlsx
+++ b/Radiator Database.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Documents\GitSourceCode\Radiators\radiators2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C750488C-62C2-4786-A668-35797AA3A02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FF4D04-226C-4614-BB82-BE6907DEBE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47265" yWindow="1080" windowWidth="21270" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="16200" windowHeight="9307" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RadiatorDatabase" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="TestNamedRange">'RadiatorDatabase'!$P$2</definedName>
+    <definedName name="TestNamedRange">'RadiatorDatabase'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,28 +36,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
@@ -81,10 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="22">
-  <si>
-    <t>-</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="20">
   <si>
     <t>K1</t>
   </si>
@@ -114,9 +89,6 @@
   </si>
   <si>
     <t>Key</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>Subtype</t>
@@ -232,14 +204,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -262,8 +233,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58EEB467-E210-4341-8481-A47BCCD8FBA1}" name="RadiatorDatabase" displayName="RadiatorDatabase" ref="A1:I172" totalsRowShown="0">
-  <autoFilter ref="A1:I172" xr:uid="{58EEB467-E210-4341-8481-A47BCCD8FBA1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58EEB467-E210-4341-8481-A47BCCD8FBA1}" name="RadiatorDatabase" displayName="RadiatorDatabase" ref="A1:I171" totalsRowShown="0">
+  <autoFilter ref="A1:I171" xr:uid="{58EEB467-E210-4341-8481-A47BCCD8FBA1}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{9BB030BD-CDEC-486F-89D1-6094E4AC4FFD}" name="Key"/>
     <tableColumn id="8" xr3:uid="{419D97C0-0DD3-41A5-AEEC-E4BD5ABD92D4}" name="Manufacturer"/>
@@ -542,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FF5D92-B17B-4500-A196-AEEFF3505D3D}">
-  <dimension ref="A1:P172"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G183" sqref="G183"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -560,2297 +531,2255 @@
     <col min="9" max="9" width="6.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>ModernxK2x1000x600</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G2">
         <v>1.3</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="M2" t="str" cm="1">
-        <f t="array" ref="M2:M6">_xlfn.UNIQUE(RadiatorDatabase[Type])</f>
-        <v>-</v>
-      </c>
-      <c r="N2" t="str" cm="1">
-        <f t="array" ref="N2:N10">_xlfn.UNIQUE(RadiatorDatabase[Subtype])</f>
-        <v>-</v>
-      </c>
-      <c r="P2">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1000x600</v>
+        <v>1732</v>
+      </c>
+      <c r="I2" s="1">
+        <v>99.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F3">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G3">
         <v>1.3</v>
       </c>
       <c r="H3">
-        <v>1732</v>
+        <v>6000</v>
       </c>
       <c r="I3" s="1">
-        <v>99.65</v>
-      </c>
-      <c r="M3" t="str">
-        <v>Modern</v>
-      </c>
-      <c r="N3" t="str">
-        <v>K2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>15</v>
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>ModernxK2x1100x600</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F4">
-        <v>999</v>
+        <v>1100</v>
       </c>
       <c r="G4">
+        <f>G2</f>
         <v>1.3</v>
       </c>
       <c r="H4">
-        <v>6000</v>
+        <v>1905</v>
       </c>
       <c r="I4" s="1">
-        <v>1234</v>
-      </c>
-      <c r="M4" t="str">
-        <v>Column</v>
-      </c>
-      <c r="N4" t="str">
-        <v>K1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+        <v>109.61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1100x600</v>
+        <v>ModernxK2x1200x600</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>600</v>
       </c>
       <c r="F5">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G5">
-        <f>G3</f>
+        <f t="shared" ref="G5:G68" si="0">G4</f>
         <v>1.3</v>
       </c>
       <c r="H5">
-        <v>1905</v>
+        <v>2078</v>
       </c>
       <c r="I5" s="1">
+        <v>119.57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>ModernxK2x900x600</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>600</v>
+      </c>
+      <c r="F6">
+        <v>900</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H6">
+        <v>1559</v>
+      </c>
+      <c r="I6" s="1">
+        <v>93.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>ModernxK2x800x600</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>600</v>
+      </c>
+      <c r="F7">
+        <v>800</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H7">
+        <v>1386</v>
+      </c>
+      <c r="I7" s="1">
+        <v>86.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>ModernxK2x1800x600</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>600</v>
+      </c>
+      <c r="F8">
+        <v>1800</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H8">
+        <v>3118</v>
+      </c>
+      <c r="I8" s="1">
+        <v>198.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>ModernxK2x1600x600</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>600</v>
+      </c>
+      <c r="F9">
+        <v>1600</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H9">
+        <v>2771</v>
+      </c>
+      <c r="I9" s="1">
+        <v>176.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>ModernxK2x1400x600</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>600</v>
+      </c>
+      <c r="F10">
+        <v>1400</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H10">
+        <v>2425</v>
+      </c>
+      <c r="I10" s="1">
+        <v>154.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>ModernxK2x1200x450</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>450</v>
+      </c>
+      <c r="F11">
+        <v>1200</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H11">
+        <v>1645</v>
+      </c>
+      <c r="I11" s="1">
         <v>109.61</v>
       </c>
-      <c r="M5" t="str">
-        <v>Coumn</v>
-      </c>
-      <c r="N5" t="str">
-        <v>P+</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1200x600</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>600</v>
-      </c>
-      <c r="F6">
-        <v>1200</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ref="G6:G69" si="0">G5</f>
-        <v>1.3</v>
-      </c>
-      <c r="H6">
-        <v>2078</v>
-      </c>
-      <c r="I6" s="1">
-        <v>119.57</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" t="str">
-        <v>K3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x900x600</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>600</v>
-      </c>
-      <c r="F7">
-        <v>900</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
-      <c r="H7">
-        <v>1559</v>
-      </c>
-      <c r="I7" s="1">
-        <v>93.42</v>
-      </c>
-      <c r="N7">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>ModernxK2x1000x450</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x800x600</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>600</v>
-      </c>
-      <c r="F8">
-        <v>800</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
-      <c r="H8">
-        <v>1386</v>
-      </c>
-      <c r="I8" s="1">
-        <v>86.36</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1800x600</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>600</v>
-      </c>
-      <c r="F9">
-        <v>1800</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
-      <c r="H9">
-        <v>3118</v>
-      </c>
-      <c r="I9" s="1">
-        <v>198.04</v>
-      </c>
-      <c r="N9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1600x600</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>600</v>
-      </c>
-      <c r="F10">
-        <v>1600</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
-      <c r="H10">
-        <v>2771</v>
-      </c>
-      <c r="I10" s="1">
-        <v>176.02</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1400x600</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>600</v>
-      </c>
-      <c r="F11">
-        <v>1400</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
-      <c r="H11">
-        <v>2425</v>
-      </c>
-      <c r="I11" s="1">
-        <v>154.06</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1200x450</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
       </c>
       <c r="E12">
         <v>450</v>
       </c>
       <c r="F12">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H12">
-        <v>1645</v>
+        <v>1371</v>
       </c>
       <c r="I12" s="1">
-        <v>109.61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+        <v>91.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1000x450</v>
+        <v>ModernxK2x1100x450</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>450</v>
       </c>
       <c r="F13">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H13">
-        <v>1371</v>
+        <v>1508</v>
       </c>
       <c r="I13" s="1">
-        <v>91.36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+        <v>100.52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1100x450</v>
+        <v>ModernxK2x700x600</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14">
+        <v>600</v>
+      </c>
+      <c r="F14">
+        <v>700</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H14">
+        <v>1212</v>
+      </c>
+      <c r="I14" s="1">
+        <v>81.84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>ModernxK2x900x450</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15">
         <v>450</v>
       </c>
-      <c r="F14">
-        <v>1100</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
-      <c r="H14">
-        <v>1508</v>
-      </c>
-      <c r="I14" s="1">
-        <v>100.52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A15" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x700x600</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>600</v>
-      </c>
       <c r="F15">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H15">
-        <v>1212</v>
+        <v>1234</v>
       </c>
       <c r="I15" s="1">
-        <v>81.84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+        <v>85.67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x900x450</v>
+        <v>ModernxK2x600x600</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="F16">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H16">
-        <v>1234</v>
+        <v>1039</v>
       </c>
       <c r="I16" s="1">
-        <v>85.67</v>
+        <v>74.739999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x600x600</v>
+        <v>ModernxK2x800x450</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="F17">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H17">
-        <v>1039</v>
+        <v>1097</v>
       </c>
       <c r="I17" s="1">
-        <v>74.739999999999995</v>
+        <v>79.19</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x800x450</v>
+        <v>ModernxK1x700x600</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="F18">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H18">
-        <v>1097</v>
+        <v>686</v>
       </c>
       <c r="I18" s="1">
-        <v>79.19</v>
+        <v>49.78</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x700x600</v>
+        <v>ModernxK1x900x600</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>600</v>
       </c>
       <c r="F19">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H19">
-        <v>686</v>
+        <v>882</v>
       </c>
       <c r="I19" s="1">
-        <v>49.78</v>
+        <v>64.02</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x900x600</v>
+        <v>ModernxK1x1200x600</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>600</v>
       </c>
       <c r="F20">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H20">
-        <v>882</v>
+        <v>1176</v>
       </c>
       <c r="I20" s="1">
-        <v>64.02</v>
+        <v>85.36</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1200x600</v>
+        <v>ModernxK1x600x600</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>600</v>
       </c>
       <c r="F21">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H21">
-        <v>1176</v>
+        <v>588</v>
       </c>
       <c r="I21" s="1">
-        <v>85.36</v>
+        <v>42.69</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x600x600</v>
+        <v>ModernxK1x1400x600</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>600</v>
       </c>
       <c r="F22">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H22">
-        <v>588</v>
+        <v>1372</v>
       </c>
       <c r="I22" s="1">
-        <v>42.69</v>
+        <v>99.61</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1400x600</v>
+        <v>ModernxK1x1600x600</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>600</v>
       </c>
       <c r="F23">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H23">
-        <v>1372</v>
+        <v>1568</v>
       </c>
       <c r="I23" s="1">
-        <v>99.61</v>
+        <v>113.84</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1600x600</v>
+        <v>ModernxK1x1100x600</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>600</v>
       </c>
       <c r="F24">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H24">
-        <v>1568</v>
+        <v>1078</v>
       </c>
       <c r="I24" s="1">
-        <v>113.84</v>
+        <v>78.27</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1100x600</v>
+        <v>ModernxK1x800x600</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>600</v>
       </c>
       <c r="F25">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H25">
-        <v>1078</v>
+        <v>784</v>
       </c>
       <c r="I25" s="1">
-        <v>78.27</v>
+        <v>56.94</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x800x600</v>
+        <v>ModernxK1x1000x600</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>600</v>
       </c>
       <c r="F26">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H26">
-        <v>784</v>
+        <v>980</v>
       </c>
       <c r="I26" s="1">
-        <v>56.94</v>
+        <v>71.739999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1000x600</v>
+        <v>ModernxK2x1600x450</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="F27">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H27">
-        <v>980</v>
+        <v>2194</v>
       </c>
       <c r="I27" s="1">
-        <v>71.739999999999995</v>
+        <v>161.37</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1600x450</v>
+        <v>ModernxK2x1800x450</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>450</v>
       </c>
       <c r="F28">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H28">
-        <v>2194</v>
+        <v>2468</v>
       </c>
       <c r="I28" s="1">
-        <v>161.37</v>
+        <v>181.58</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1800x450</v>
+        <v>ModernxK2x1400x450</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>450</v>
       </c>
       <c r="F29">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H29">
-        <v>2468</v>
+        <v>1919</v>
       </c>
       <c r="I29" s="1">
-        <v>181.58</v>
+        <v>141.21</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1400x450</v>
+        <v>ModernxK2x2000x450</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>450</v>
       </c>
       <c r="F30">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H30">
-        <v>1919</v>
+        <v>2742</v>
       </c>
       <c r="I30" s="1">
-        <v>141.21</v>
+        <v>209.8</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x2000x450</v>
+        <v>ModernxK2x700x450</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>450</v>
       </c>
       <c r="F31">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H31">
-        <v>2742</v>
+        <v>960</v>
       </c>
       <c r="I31" s="1">
-        <v>209.8</v>
+        <v>74.599999999999994</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x700x450</v>
+        <v>ModernxK2x500x600</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="F32">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H32">
-        <v>960</v>
+        <v>866</v>
       </c>
       <c r="I32" s="1">
-        <v>74.599999999999994</v>
+        <v>67.489999999999995</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x500x600</v>
+        <v>ModernxK2x1000x700</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F33">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H33">
-        <v>866</v>
+        <v>1961</v>
       </c>
       <c r="I33" s="1">
-        <v>67.489999999999995</v>
+        <v>154.36000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1000x700</v>
+        <v>ModernxK1x1800x600</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F34">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H34">
-        <v>1961</v>
+        <v>1764</v>
       </c>
       <c r="I34" s="1">
-        <v>154.36000000000001</v>
+        <v>139.06</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1800x600</v>
+        <v>ModernxK1x500x600</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>600</v>
       </c>
       <c r="F35">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H35">
-        <v>1764</v>
+        <v>490</v>
       </c>
       <c r="I35" s="1">
-        <v>139.06</v>
+        <v>40.659999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x500x600</v>
+        <v>ModernxK2x600x450</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="F36">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H36">
-        <v>490</v>
+        <v>823</v>
       </c>
       <c r="I36" s="1">
-        <v>40.659999999999997</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x600x450</v>
+        <v>ModernxK2x400x600</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="F37">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H37">
-        <v>823</v>
+        <v>693</v>
       </c>
       <c r="I37" s="1">
-        <v>68.5</v>
+        <v>58.14</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x400x600</v>
+        <v>ModernxK2x1100x700</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F38">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H38">
-        <v>693</v>
+        <v>2157</v>
       </c>
       <c r="I38" s="1">
-        <v>58.14</v>
+        <v>181.9</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1100x700</v>
+        <v>ModernxK2x1200x700</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>700</v>
       </c>
       <c r="F39">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H39">
-        <v>2157</v>
+        <v>2353</v>
       </c>
       <c r="I39" s="1">
-        <v>181.9</v>
+        <v>198.48</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1200x700</v>
+        <v>ModernxK2x2200x450</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="F40">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H40">
-        <v>2353</v>
+        <v>3016</v>
       </c>
       <c r="I40" s="1">
-        <v>198.48</v>
+        <v>257.01</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x2200x450</v>
+        <v>ModernxK2x2400x450</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>450</v>
       </c>
       <c r="F41">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H41">
-        <v>3016</v>
+        <v>3290</v>
       </c>
       <c r="I41" s="1">
-        <v>257.01</v>
+        <v>280.38</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x2400x450</v>
+        <v>ModernxK1x1100x450</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>450</v>
       </c>
       <c r="F42">
-        <v>2400</v>
+        <v>1100</v>
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H42">
-        <v>3290</v>
+        <v>832</v>
       </c>
       <c r="I42" s="1">
-        <v>280.38</v>
+        <v>71.739999999999995</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1100x450</v>
+        <v>ModernxK1x800x450</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>450</v>
       </c>
       <c r="F43">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="G43">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H43">
-        <v>832</v>
+        <v>605</v>
       </c>
       <c r="I43" s="1">
-        <v>71.739999999999995</v>
+        <v>52.17</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x800x450</v>
+        <v>ModernxK1x1600x450</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>450</v>
       </c>
       <c r="F44">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H44">
-        <v>605</v>
+        <v>1210</v>
       </c>
       <c r="I44" s="1">
-        <v>52.17</v>
+        <v>104.34</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1600x450</v>
+        <v>ModernxK1x600x450</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>450</v>
       </c>
       <c r="F45">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="G45">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H45">
-        <v>1210</v>
+        <v>454</v>
       </c>
       <c r="I45" s="1">
-        <v>104.34</v>
+        <v>39.15</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x600x450</v>
+        <v>ModernxK1x1000x450</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>450</v>
       </c>
       <c r="F46">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H46">
-        <v>454</v>
+        <v>756</v>
       </c>
       <c r="I46" s="1">
-        <v>39.15</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1000x450</v>
+        <v>ModernxK1x1400x450</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>450</v>
       </c>
       <c r="F47">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H47">
-        <v>756</v>
+        <v>1058</v>
       </c>
       <c r="I47" s="1">
-        <v>65.2</v>
+        <v>91.29</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1400x450</v>
+        <v>ModernxK1x900x450</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>450</v>
       </c>
       <c r="F48">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H48">
-        <v>1058</v>
+        <v>680</v>
       </c>
       <c r="I48" s="1">
-        <v>91.29</v>
+        <v>58.68</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x900x450</v>
+        <v>ModernxK1x700x450</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>450</v>
       </c>
       <c r="F49">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H49">
-        <v>680</v>
+        <v>529</v>
       </c>
       <c r="I49" s="1">
-        <v>58.68</v>
+        <v>45.65</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x700x450</v>
+        <v>ModernxK1x1200x450</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>450</v>
       </c>
       <c r="F50">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="G50">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H50">
-        <v>529</v>
+        <v>907</v>
       </c>
       <c r="I50" s="1">
-        <v>45.65</v>
+        <v>78.27</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1200x450</v>
+        <v>ModernxK2x1000x300</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="F51">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="G51">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H51">
-        <v>907</v>
+        <v>982</v>
       </c>
       <c r="I51" s="1">
-        <v>78.27</v>
+        <v>85.18</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1000x300</v>
+        <v>ModernxK2x2000x600</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F52">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G52">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H52">
-        <v>982</v>
+        <v>3464</v>
       </c>
       <c r="I52" s="1">
-        <v>85.18</v>
+        <v>303.12</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x2000x600</v>
+        <v>ModernxK2x900x700</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F53">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H53">
-        <v>3464</v>
+        <v>1765</v>
       </c>
       <c r="I53" s="1">
-        <v>303.12</v>
+        <v>155.07</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x900x700</v>
+        <v>ModernxK2x1500x300</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F54">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H54">
-        <v>1765</v>
+        <v>1473</v>
       </c>
       <c r="I54" s="1">
-        <v>155.07</v>
+        <v>130.91</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1500x300</v>
+        <v>ModernxK2x500x450</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E55">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="F55">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H55">
-        <v>1473</v>
+        <v>686</v>
       </c>
       <c r="I55" s="1">
-        <v>130.91</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x500x450</v>
+        <v>ModernxK2x800x700</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="F56">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H56">
-        <v>686</v>
+        <v>1569</v>
       </c>
       <c r="I56" s="1">
-        <v>61.83</v>
+        <v>143.31</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x800x700</v>
+        <v>ModernxK2x2000x300</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F57">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="G57">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H57">
-        <v>1569</v>
+        <v>1964</v>
       </c>
       <c r="I57" s="1">
-        <v>143.31</v>
+        <v>181.53</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x2000x300</v>
+        <v>ModernxK2x1600x700</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F58">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H58">
-        <v>1964</v>
+        <v>3138</v>
       </c>
       <c r="I58" s="1">
-        <v>181.53</v>
+        <v>292.18</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1600x700</v>
+        <v>ModernxK2x1800x700</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E59">
         <v>700</v>
       </c>
       <c r="F59">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="G59">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H59">
-        <v>3138</v>
+        <v>3530</v>
       </c>
       <c r="I59" s="1">
-        <v>292.18</v>
+        <v>328.68</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1800x700</v>
+        <v>ModernxK2x1400x700</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E60">
         <v>700</v>
       </c>
       <c r="F60">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="G60">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H60">
-        <v>3530</v>
+        <v>2745</v>
       </c>
       <c r="I60" s="1">
-        <v>328.68</v>
+        <v>255.64</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1400x700</v>
+        <v>ModernxK1x400x600</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F61">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="G61">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H61">
-        <v>2745</v>
+        <v>392</v>
       </c>
       <c r="I61" s="1">
-        <v>255.64</v>
+        <v>36.619999999999997</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x400x600</v>
+        <v>ModernxP+x1000x300</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F62">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G62">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H62">
-        <v>392</v>
+        <v>745</v>
       </c>
       <c r="I62" s="1">
-        <v>36.619999999999997</v>
+        <v>71.739999999999995</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxP+x1000x300</v>
+        <v>ModernxK2x2000x700</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
         <v>2</v>
       </c>
       <c r="E63">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F63">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G63">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H63">
-        <v>745</v>
+        <v>3922</v>
       </c>
       <c r="I63" s="1">
-        <v>71.739999999999995</v>
+        <v>379.84</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x2000x700</v>
+        <v>ModernxK2x400x450</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="F64">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="G64">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H64">
-        <v>3922</v>
+        <v>548</v>
       </c>
       <c r="I64" s="1">
-        <v>379.84</v>
+        <v>53.29</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x400x450</v>
+        <v>ModernxK2x700x700</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="F65">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="G65">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H65">
-        <v>548</v>
+        <v>1373</v>
       </c>
       <c r="I65" s="1">
-        <v>53.29</v>
+        <v>135.04</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x700x700</v>
+        <v>ModernxK3x1200x500</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E66">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F66">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="G66">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H66">
-        <v>1373</v>
+        <v>2467</v>
       </c>
       <c r="I66" s="1">
-        <v>135.04</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1200x500</v>
+        <v>ModernxP+x1000x700</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F67">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="G67">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H67">
-        <v>2467</v>
+        <v>1530</v>
       </c>
       <c r="I67" s="1">
-        <v>243</v>
+        <v>150.74</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxP+x1000x700</v>
+        <v>ModernxK3x1100x600</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E68">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F68">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G68">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H68">
-        <v>1530</v>
+        <v>2628</v>
       </c>
       <c r="I68" s="1">
-        <v>150.74</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1100x600</v>
+        <v>ModernxK1x500x450</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="F69">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="G69">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G69:G132" si="1">G68</f>
         <v>1.3</v>
       </c>
       <c r="H69">
-        <v>2628</v>
+        <v>378</v>
       </c>
       <c r="I69" s="1">
-        <v>259</v>
+        <v>37.26</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x500x450</v>
+        <v>ModernxK3x1100x500</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E70">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="F70">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G70">
-        <f t="shared" ref="G70:G133" si="1">G69</f>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H70">
-        <v>378</v>
+        <v>2262</v>
       </c>
       <c r="I70" s="1">
-        <v>37.26</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1100x500</v>
+        <v>ModernxK3x1200x600</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E71">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F71">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G71">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H71">
-        <v>2262</v>
+        <v>2867</v>
       </c>
       <c r="I71" s="1">
-        <v>223</v>
+        <v>283</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1200x600</v>
+        <v>ModernxK3x1000x500</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E72">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F72">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="G72">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H72">
-        <v>2867</v>
+        <v>2056</v>
       </c>
       <c r="I72" s="1">
-        <v>283</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1000x500</v>
+        <v>ModernxK3x1000x600</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E73">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F73">
         <v>1000</v>
@@ -2860,307 +2789,307 @@
         <v>1.3</v>
       </c>
       <c r="H73">
-        <v>2056</v>
+        <v>2389</v>
       </c>
       <c r="I73" s="1">
-        <v>203</v>
+        <v>236</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1000x600</v>
+        <v>ModernxP+x1200x700</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E74">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F74">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G74">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H74">
-        <v>2389</v>
+        <v>1836</v>
       </c>
       <c r="I74" s="1">
-        <v>236</v>
+        <v>181.86</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxP+x1200x700</v>
+        <v>ModernxK2x2200x600</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D75" t="s">
         <v>2</v>
       </c>
       <c r="E75">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F75">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="G75">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H75">
-        <v>1836</v>
+        <v>3810</v>
       </c>
       <c r="I75" s="1">
-        <v>181.86</v>
+        <v>378.33</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x2200x600</v>
+        <v>ModernxK2x2400x600</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E76">
         <v>600</v>
       </c>
       <c r="F76">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="G76">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H76">
-        <v>3810</v>
+        <v>4157</v>
       </c>
       <c r="I76" s="1">
-        <v>378.33</v>
+        <v>412.94</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x2400x600</v>
+        <v>ModernxK1x2000x600</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <v>600</v>
       </c>
       <c r="F77">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="G77">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H77">
-        <v>4157</v>
+        <v>1960</v>
       </c>
       <c r="I77" s="1">
-        <v>412.94</v>
+        <v>195.09</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x2000x600</v>
+        <v>ModernxK2x500x300</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F78">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G78">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H78">
-        <v>1960</v>
+        <v>491</v>
       </c>
       <c r="I78" s="1">
-        <v>195.09</v>
+        <v>48.99</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x500x300</v>
+        <v>ModernxK1x1500x300</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>300</v>
       </c>
       <c r="F79">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G79">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H79">
-        <v>491</v>
+        <v>764</v>
       </c>
       <c r="I79" s="1">
-        <v>48.99</v>
+        <v>76.23</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1500x300</v>
+        <v>ModernxP+x900x700</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D80" t="s">
         <v>1</v>
       </c>
       <c r="E80">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F80">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="G80">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H80">
-        <v>764</v>
+        <v>1377</v>
       </c>
       <c r="I80" s="1">
-        <v>76.23</v>
+        <v>137.72999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxP+x900x700</v>
+        <v>ModernxP+x800x700</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E81">
         <v>700</v>
       </c>
       <c r="F81">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G81">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H81">
-        <v>1377</v>
+        <v>1224</v>
       </c>
       <c r="I81" s="1">
-        <v>137.72999999999999</v>
+        <v>124.55</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxP+x800x700</v>
+        <v>ModernxK3x900x500</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E82">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F82">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G82">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H82">
-        <v>1224</v>
+        <v>1850</v>
       </c>
       <c r="I82" s="1">
-        <v>124.55</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x900x500</v>
+        <v>ModernxK3x900x600</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E83">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F83">
         <v>900</v>
@@ -3170,394 +3099,394 @@
         <v>1.3</v>
       </c>
       <c r="H83">
-        <v>1850</v>
+        <v>2150</v>
       </c>
       <c r="I83" s="1">
-        <v>190</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x900x600</v>
+        <v>ModernxP+x700x700</v>
       </c>
       <c r="B84" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E84">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F84">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="G84">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H84">
-        <v>2150</v>
+        <v>1071</v>
       </c>
       <c r="I84" s="1">
-        <v>221</v>
+        <v>112.74</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxP+x700x700</v>
+        <v>ModernxK1x1000x300</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F85">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="G85">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H85">
-        <v>1071</v>
+        <v>509</v>
       </c>
       <c r="I85" s="1">
-        <v>112.74</v>
+        <v>53.62</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1000x300</v>
+        <v>ModernxK2x600x700</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E86">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F86">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="G86">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H86">
-        <v>509</v>
+        <v>1177</v>
       </c>
       <c r="I86" s="1">
-        <v>53.62</v>
+        <v>124.02</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x600x700</v>
+        <v>ModernxK1x800x700</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>700</v>
       </c>
       <c r="F87">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G87">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H87">
-        <v>1177</v>
+        <v>894</v>
       </c>
       <c r="I87" s="1">
-        <v>124.02</v>
+        <v>94.46</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x800x700</v>
+        <v>ModernxK1x1100x700</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>700</v>
       </c>
       <c r="F88">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="G88">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H88">
-        <v>894</v>
+        <v>1229</v>
       </c>
       <c r="I88" s="1">
-        <v>94.46</v>
+        <v>129.87</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1100x700</v>
+        <v>ModernxK1x700x700</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89">
         <v>700</v>
       </c>
       <c r="F89">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="G89">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H89">
-        <v>1229</v>
+        <v>782</v>
       </c>
       <c r="I89" s="1">
-        <v>129.87</v>
+        <v>82.64</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x700x700</v>
+        <v>ModernxK1x1000x700</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <v>700</v>
       </c>
       <c r="F90">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="G90">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H90">
-        <v>782</v>
+        <v>1117</v>
       </c>
       <c r="I90" s="1">
-        <v>82.64</v>
+        <v>118.06</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1000x700</v>
+        <v>ModernxK1x600x700</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>700</v>
       </c>
       <c r="F91">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="G91">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H91">
-        <v>1117</v>
+        <v>670</v>
       </c>
       <c r="I91" s="1">
-        <v>118.06</v>
+        <v>70.819999999999993</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x600x700</v>
+        <v>ModernxK1x1400x700</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>700</v>
       </c>
       <c r="F92">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="G92">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H92">
-        <v>670</v>
+        <v>1564</v>
       </c>
       <c r="I92" s="1">
-        <v>70.819999999999993</v>
+        <v>165.32</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1400x700</v>
+        <v>ModernxK1x1600x700</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93">
         <v>700</v>
       </c>
       <c r="F93">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="G93">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H93">
-        <v>1564</v>
+        <v>1787</v>
       </c>
       <c r="I93" s="1">
-        <v>165.32</v>
+        <v>188.91</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1600x700</v>
+        <v>ModernxK1x1200x700</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>700</v>
       </c>
       <c r="F94">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="G94">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H94">
-        <v>1787</v>
+        <v>1340</v>
       </c>
       <c r="I94" s="1">
-        <v>188.91</v>
+        <v>141.69</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1200x700</v>
+        <v>ModernxK1x900x700</v>
       </c>
       <c r="B95" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95">
         <v>700</v>
       </c>
       <c r="F95">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="G95">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H95">
-        <v>1340</v>
+        <v>1005</v>
       </c>
       <c r="I95" s="1">
-        <v>141.69</v>
+        <v>106.28</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x900x700</v>
+        <v>ModernxP+x1400x700</v>
       </c>
       <c r="B96" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D96" t="s">
         <v>1</v>
@@ -3566,66 +3495,66 @@
         <v>700</v>
       </c>
       <c r="F96">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="G96">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H96">
-        <v>1005</v>
+        <v>2142</v>
       </c>
       <c r="I96" s="1">
-        <v>106.28</v>
+        <v>227.63</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxP+x1400x700</v>
+        <v>ModernxK3x800x600</v>
       </c>
       <c r="B97" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E97">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F97">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="G97">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H97">
-        <v>2142</v>
+        <v>1911</v>
       </c>
       <c r="I97" s="1">
-        <v>227.63</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x800x600</v>
+        <v>ModernxK3x800x500</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E98">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F98">
         <v>800</v>
@@ -3635,214 +3564,214 @@
         <v>1.3</v>
       </c>
       <c r="H98">
-        <v>1911</v>
+        <v>1645</v>
       </c>
       <c r="I98" s="1">
-        <v>204</v>
+        <v>176</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x800x500</v>
+        <v>ModernxK1x2400x600</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F99">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="G99">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H99">
-        <v>1645</v>
+        <v>2352</v>
       </c>
       <c r="I99" s="1">
-        <v>176</v>
+        <v>253.72</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x2400x600</v>
+        <v>ModernxK1x2200x600</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100">
         <v>600</v>
       </c>
       <c r="F100">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="G100">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H100">
-        <v>2352</v>
+        <v>2156</v>
       </c>
       <c r="I100" s="1">
-        <v>253.72</v>
+        <v>232.65</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x2200x600</v>
+        <v>ModernxP+x1100x700</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D101" t="s">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F101">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="G101">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H101">
-        <v>2156</v>
+        <v>1683</v>
       </c>
       <c r="I101" s="1">
-        <v>232.65</v>
+        <v>181.86</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxP+x1100x700</v>
+        <v>ModernxK1x2400x450</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="F102">
-        <v>1100</v>
+        <v>2400</v>
       </c>
       <c r="G102">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H102">
-        <v>1683</v>
+        <v>1814</v>
       </c>
       <c r="I102" s="1">
-        <v>181.86</v>
+        <v>196.23</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x2400x450</v>
+        <v>ModernxP+x600x700</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D103" t="s">
         <v>1</v>
       </c>
       <c r="E103">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="F103">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="G103">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H103">
-        <v>1814</v>
+        <v>918</v>
       </c>
       <c r="I103" s="1">
-        <v>196.23</v>
+        <v>99.86</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxP+x600x700</v>
+        <v>ModernxK3x1800x500</v>
       </c>
       <c r="B104" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E104">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F104">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="G104">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H104">
-        <v>918</v>
+        <v>3701</v>
       </c>
       <c r="I104" s="1">
-        <v>99.86</v>
+        <v>403</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1800x500</v>
+        <v>ModernxK3x1800x600</v>
       </c>
       <c r="B105" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E105">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F105">
         <v>1800</v>
@@ -3852,307 +3781,307 @@
         <v>1.3</v>
       </c>
       <c r="H105">
-        <v>3701</v>
+        <v>4300</v>
       </c>
       <c r="I105" s="1">
-        <v>403</v>
+        <v>469</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1800x600</v>
+        <v>ModernxK3x1400x500</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E106">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F106">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="G106">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H106">
-        <v>4300</v>
+        <v>2878</v>
       </c>
       <c r="I106" s="1">
-        <v>469</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1400x500</v>
+        <v>ModernxK3x1600x600</v>
       </c>
       <c r="B107" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E107">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F107">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="G107">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H107">
-        <v>2878</v>
+        <v>3822</v>
       </c>
       <c r="I107" s="1">
-        <v>314</v>
+        <v>417</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1600x600</v>
+        <v>ModernxK3x1400x600</v>
       </c>
       <c r="B108" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E108">
         <v>600</v>
       </c>
       <c r="F108">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="G108">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H108">
-        <v>3822</v>
+        <v>3345</v>
       </c>
       <c r="I108" s="1">
-        <v>417</v>
+        <v>365</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1400x600</v>
+        <v>ModernxK3x1600x500</v>
       </c>
       <c r="B109" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E109">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F109">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="G109">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H109">
-        <v>3345</v>
+        <v>3290</v>
       </c>
       <c r="I109" s="1">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1600x500</v>
+        <v>ModernxK1x400x450</v>
       </c>
       <c r="B110" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="F110">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="G110">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H110">
-        <v>3290</v>
+        <v>302</v>
       </c>
       <c r="I110" s="1">
-        <v>359</v>
+        <v>33.53</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x400x450</v>
+        <v>ModernxK1x1800x450</v>
       </c>
       <c r="B111" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111">
         <v>450</v>
       </c>
       <c r="F111">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="G111">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H111">
-        <v>302</v>
+        <v>1361</v>
       </c>
       <c r="I111" s="1">
-        <v>33.53</v>
+        <v>154.74</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1800x450</v>
+        <v>ModernxK2x500x700</v>
       </c>
       <c r="B112" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D112" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E112">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="F112">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G112">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H112">
-        <v>1361</v>
+        <v>981</v>
       </c>
       <c r="I112" s="1">
-        <v>154.74</v>
+        <v>111.95</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x500x700</v>
+        <v>ModernxK1x1800x700</v>
       </c>
       <c r="B113" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D113" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E113">
         <v>700</v>
       </c>
       <c r="F113">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G113">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H113">
-        <v>981</v>
+        <v>2011</v>
       </c>
       <c r="I113" s="1">
-        <v>111.95</v>
+        <v>230.73</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1800x700</v>
+        <v>ModernxK3x700x500</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D114" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E114">
+        <v>500</v>
+      </c>
+      <c r="F114">
         <v>700</v>
       </c>
-      <c r="F114">
-        <v>1800</v>
-      </c>
       <c r="G114">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H114">
-        <v>2011</v>
+        <v>1439</v>
       </c>
       <c r="I114" s="1">
-        <v>230.73</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A115" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x700x500</v>
+        <v>ModernxK3x700x600</v>
       </c>
       <c r="B115" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E115">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F115">
         <v>700</v>
@@ -4162,301 +4091,301 @@
         <v>1.3</v>
       </c>
       <c r="H115">
-        <v>1439</v>
+        <v>1672</v>
       </c>
       <c r="I115" s="1">
-        <v>166</v>
+        <v>193</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A116" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x700x600</v>
+        <v>ModernxK1x2000x450</v>
       </c>
       <c r="B116" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="F116">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="G116">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H116">
-        <v>1672</v>
+        <v>1512</v>
       </c>
       <c r="I116" s="1">
-        <v>193</v>
+        <v>175.38</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x2000x450</v>
+        <v>ModernxP+x1500x300</v>
       </c>
       <c r="B117" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D117" t="s">
         <v>1</v>
       </c>
       <c r="E117">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="F117">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G117">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H117">
-        <v>1512</v>
+        <v>1118</v>
       </c>
       <c r="I117" s="1">
-        <v>175.38</v>
+        <v>130.16</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxP+x1500x300</v>
+        <v>ModernxP+x500x300</v>
       </c>
       <c r="B118" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E118">
         <v>300</v>
       </c>
       <c r="F118">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G118">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H118">
-        <v>1118</v>
+        <v>373</v>
       </c>
       <c r="I118" s="1">
-        <v>130.16</v>
+        <v>44.15</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A119" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxP+x500x300</v>
+        <v>ModernxK3x1100x700</v>
       </c>
       <c r="B119" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D119" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E119">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F119">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G119">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H119">
-        <v>373</v>
+        <v>2983</v>
       </c>
       <c r="I119" s="1">
-        <v>44.15</v>
+        <v>355</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A120" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1100x700</v>
+        <v>ModernxK3x1000x700</v>
       </c>
       <c r="B120" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E120">
         <v>700</v>
       </c>
       <c r="F120">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G120">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H120">
-        <v>2983</v>
+        <v>2712</v>
       </c>
       <c r="I120" s="1">
-        <v>355</v>
+        <v>323</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A121" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1000x700</v>
+        <v>ModernxK3x1200x700</v>
       </c>
       <c r="B121" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E121">
         <v>700</v>
       </c>
       <c r="F121">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G121">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H121">
-        <v>2712</v>
+        <v>3254</v>
       </c>
       <c r="I121" s="1">
-        <v>323</v>
+        <v>388</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A122" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1200x700</v>
+        <v>ModernxP+x400x700</v>
       </c>
       <c r="B122" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E122">
         <v>700</v>
       </c>
       <c r="F122">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="G122">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H122">
-        <v>3254</v>
+        <v>612</v>
       </c>
       <c r="I122" s="1">
-        <v>388</v>
+        <v>72.98</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A123" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxP+x400x700</v>
+        <v>ModernxK1x2000x700</v>
       </c>
       <c r="B123" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D123" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E123">
         <v>700</v>
       </c>
       <c r="F123">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="G123">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H123">
-        <v>612</v>
+        <v>2234</v>
       </c>
       <c r="I123" s="1">
-        <v>72.98</v>
+        <v>266.62</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A124" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x2000x700</v>
+        <v>ModernxK1x500x700</v>
       </c>
       <c r="B124" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D124" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124">
         <v>700</v>
       </c>
       <c r="F124">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G124">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H124">
-        <v>2234</v>
+        <v>559</v>
       </c>
       <c r="I124" s="1">
-        <v>266.62</v>
+        <v>67.47</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A125" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x500x700</v>
+        <v>ModernxP+x500x700</v>
       </c>
       <c r="B125" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D125" t="s">
         <v>1</v>
@@ -4472,22 +4401,22 @@
         <v>1.3</v>
       </c>
       <c r="H125">
-        <v>559</v>
+        <v>765</v>
       </c>
       <c r="I125" s="1">
-        <v>67.47</v>
+        <v>92.68</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A126" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxP+x500x700</v>
+        <v>ModernxK2x400x700</v>
       </c>
       <c r="B126" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D126" t="s">
         <v>2</v>
@@ -4496,66 +4425,66 @@
         <v>700</v>
       </c>
       <c r="F126">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G126">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H126">
-        <v>765</v>
+        <v>784</v>
       </c>
       <c r="I126" s="1">
-        <v>92.68</v>
+        <v>96.46</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A127" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x400x700</v>
+        <v>ModernxK3x600x600</v>
       </c>
       <c r="B127" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D127" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E127">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F127">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G127">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H127">
-        <v>784</v>
+        <v>1433</v>
       </c>
       <c r="I127" s="1">
-        <v>96.46</v>
+        <v>177</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A128" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x600x600</v>
+        <v>ModernxK3x600x500</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E128">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F128">
         <v>600</v>
@@ -4565,524 +4494,524 @@
         <v>1.3</v>
       </c>
       <c r="H128">
-        <v>1433</v>
+        <v>1234</v>
       </c>
       <c r="I128" s="1">
-        <v>177</v>
+        <v>152.51</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A129" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x600x500</v>
+        <v>ModernxK3x900x700</v>
       </c>
       <c r="B129" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E129">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F129">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G129">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H129">
-        <v>1234</v>
+        <v>2441</v>
       </c>
       <c r="I129" s="1">
-        <v>152.51</v>
+        <v>303</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A130" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x900x700</v>
+        <v>ModernxK1x500x300</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E130">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F130">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="G130">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H130">
-        <v>2441</v>
+        <v>255</v>
       </c>
       <c r="I130" s="1">
-        <v>303</v>
+        <v>32.85</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A131" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x500x300</v>
+        <v>ModernxK3x800x700</v>
       </c>
       <c r="B131" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D131" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E131">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F131">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G131">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H131">
-        <v>255</v>
+        <v>2170</v>
       </c>
       <c r="I131" s="1">
-        <v>32.85</v>
+        <v>280</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A132" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x800x700</v>
+        <v>ModernxK1x2200x450</v>
       </c>
       <c r="B132" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C132" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E132">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="F132">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="G132">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H132">
-        <v>2170</v>
+        <v>1663</v>
       </c>
       <c r="I132" s="1">
-        <v>280</v>
+        <v>218.4</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A133" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x2200x450</v>
+        <v>ModernxK3x1600x700</v>
       </c>
       <c r="B133" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C133" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D133" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E133">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="F133">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="G133">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G133:G148" si="2">G132</f>
         <v>1.3</v>
       </c>
       <c r="H133">
-        <v>1663</v>
+        <v>4339</v>
       </c>
       <c r="I133" s="1">
-        <v>218.4</v>
+        <v>571</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A134" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1600x700</v>
+        <v>ModernxK3x1400x700</v>
       </c>
       <c r="B134" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C134" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E134">
         <v>700</v>
       </c>
       <c r="F134">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="G134">
-        <f t="shared" ref="G134:G149" si="2">G133</f>
+        <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H134">
-        <v>4339</v>
+        <v>3797</v>
       </c>
       <c r="I134" s="1">
-        <v>571</v>
+        <v>500</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A135" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1400x700</v>
+        <v>ModernxK3x1800x700</v>
       </c>
       <c r="B135" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E135">
         <v>700</v>
       </c>
       <c r="F135">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="G135">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H135">
-        <v>3797</v>
+        <v>4882</v>
       </c>
       <c r="I135" s="1">
-        <v>500</v>
+        <v>643</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A136" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1800x700</v>
+        <v>ModernxK3x500x600</v>
       </c>
       <c r="B136" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E136">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F136">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G136">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H136">
-        <v>4882</v>
+        <v>1195</v>
       </c>
       <c r="I136" s="1">
-        <v>643</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A137" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x500x600</v>
+        <v>ModernxK1x400x700</v>
       </c>
       <c r="B137" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C137" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F137">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G137">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H137">
-        <v>1195</v>
+        <v>447</v>
       </c>
       <c r="I137" s="1">
-        <v>160</v>
+        <v>60.71</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A138" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x400x700</v>
+        <v>ModernxK3x2000x700</v>
       </c>
       <c r="B138" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D138" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E138">
         <v>700</v>
       </c>
       <c r="F138">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="G138">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H138">
-        <v>447</v>
+        <v>5424</v>
       </c>
       <c r="I138" s="1">
-        <v>60.71</v>
+        <v>743</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A139" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x2000x700</v>
+        <v>ModernxK3x700x700</v>
       </c>
       <c r="B139" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E139">
         <v>700</v>
       </c>
       <c r="F139">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="G139">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H139">
-        <v>5424</v>
+        <v>1898</v>
       </c>
       <c r="I139" s="1">
-        <v>743</v>
+        <v>264</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A140" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x700x700</v>
+        <v>ModernxK3x400x600</v>
       </c>
       <c r="B140" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E140">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F140">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="G140">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H140">
-        <v>1898</v>
+        <v>956</v>
       </c>
       <c r="I140" s="1">
-        <v>264</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A141" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x400x600</v>
+        <v>ModernxK3x600x700</v>
       </c>
       <c r="B141" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E141">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F141">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G141">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H141">
-        <v>956</v>
+        <v>1627</v>
       </c>
       <c r="I141" s="1">
-        <v>137</v>
+        <v>242</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A142" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x600x700</v>
+        <v>ModernxK3x1000x300</v>
       </c>
       <c r="B142" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C142" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E142">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F142">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G142">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H142">
-        <v>1627</v>
+        <v>1349</v>
       </c>
       <c r="I142" s="1">
-        <v>242</v>
+        <v>201</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A143" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1000x300</v>
+        <v>ModernxK3x2400x500</v>
       </c>
       <c r="B143" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C143" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E143">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F143">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="G143">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H143">
-        <v>1349</v>
+        <v>4934</v>
       </c>
       <c r="I143" s="1">
-        <v>201</v>
+        <v>741</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A144" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x2400x500</v>
+        <v>ModernxK3x2000x600</v>
       </c>
       <c r="B144" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C144" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E144">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F144">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="G144">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H144">
-        <v>4934</v>
+        <v>4778</v>
       </c>
       <c r="I144" s="1">
-        <v>741</v>
+        <v>718</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A145" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x2000x600</v>
+        <v>ModernxK3x2000x500</v>
       </c>
       <c r="B145" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E145">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F145">
         <v>2000</v>
@@ -5092,146 +5021,145 @@
         <v>1.3</v>
       </c>
       <c r="H145">
-        <v>4778</v>
+        <v>4112</v>
       </c>
       <c r="I145" s="1">
-        <v>718</v>
+        <v>618</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A146" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x2000x500</v>
+        <v>ModernxK3x2400x600</v>
       </c>
       <c r="B146" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C146" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E146">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F146">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="G146">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H146">
-        <v>4112</v>
+        <v>5734</v>
       </c>
       <c r="I146" s="1">
-        <v>618</v>
+        <v>862</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A147" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x2400x600</v>
+        <v>ModernxK3x2000x300</v>
       </c>
       <c r="B147" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E147">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F147">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="G147">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H147">
-        <v>5734</v>
+        <v>2698</v>
       </c>
       <c r="I147" s="1">
-        <v>862</v>
+        <v>428</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A148" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x2000x300</v>
+        <v>ModernxK3x500x700</v>
       </c>
       <c r="B148" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E148">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F148">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G148">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H148">
-        <v>2698</v>
+        <v>1356</v>
       </c>
       <c r="I148" s="1">
-        <v>428</v>
+        <v>219</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A149" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x500x700</v>
+        <v>Columnx2x1042x600</v>
       </c>
       <c r="B149" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C149" t="s">
-        <v>13</v>
-      </c>
-      <c r="D149" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
       </c>
       <c r="E149">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F149">
-        <v>500</v>
+        <v>1042</v>
       </c>
       <c r="G149">
-        <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H149">
-        <v>1356</v>
+        <v>997</v>
       </c>
       <c r="I149" s="1">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A150" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx2x1042x600</v>
+        <v>Columnx2x628x600</v>
       </c>
       <c r="B150" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C150" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D150">
         <v>2</v>
@@ -5240,88 +5168,88 @@
         <v>600</v>
       </c>
       <c r="F150">
-        <v>1042</v>
+        <v>628</v>
       </c>
       <c r="G150">
         <v>1.3</v>
       </c>
       <c r="H150">
-        <v>997</v>
+        <v>590</v>
       </c>
       <c r="I150" s="1">
-        <v>210</v>
+        <v>124</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A151" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx2x628x600</v>
+        <v>Columnx3x812x600</v>
       </c>
       <c r="B151" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D151">
+        <v>3</v>
+      </c>
+      <c r="E151">
+        <v>600</v>
+      </c>
+      <c r="F151">
+        <v>812</v>
+      </c>
+      <c r="G151">
+        <v>1.3</v>
+      </c>
+      <c r="H151">
+        <v>1035</v>
+      </c>
+      <c r="I151" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A152" s="3" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx2x1226x600</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152">
         <v>2</v>
       </c>
-      <c r="E151">
-        <v>600</v>
-      </c>
-      <c r="F151">
-        <v>628</v>
-      </c>
-      <c r="G151">
-        <v>1.3</v>
-      </c>
-      <c r="H151">
-        <v>590</v>
-      </c>
-      <c r="I151" s="1">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A152" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx3x812x600</v>
-      </c>
-      <c r="B152" t="s">
-        <v>19</v>
-      </c>
-      <c r="C152" t="s">
-        <v>16</v>
-      </c>
-      <c r="D152">
-        <v>3</v>
-      </c>
       <c r="E152">
         <v>600</v>
       </c>
       <c r="F152">
-        <v>812</v>
+        <v>1226</v>
       </c>
       <c r="G152">
         <v>1.3</v>
       </c>
       <c r="H152">
-        <v>1035</v>
+        <v>1226</v>
       </c>
       <c r="I152" s="1">
-        <v>193</v>
+        <v>327</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A153" s="3" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx2x1226x600</v>
+      <c r="A153" s="5" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx2x1190x600</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D153">
         <v>2</v>
@@ -5330,28 +5258,28 @@
         <v>600</v>
       </c>
       <c r="F153">
-        <v>1226</v>
+        <v>1190</v>
       </c>
       <c r="G153">
         <v>1.3</v>
       </c>
       <c r="H153">
-        <v>1226</v>
+        <v>1141</v>
       </c>
       <c r="I153" s="1">
-        <v>327</v>
+        <v>230</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A154" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx2x1190x600</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>16</v>
+        <v>Columnx2x1410x600</v>
+      </c>
+      <c r="B154" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" t="s">
+        <v>14</v>
       </c>
       <c r="D154">
         <v>2</v>
@@ -5360,28 +5288,28 @@
         <v>600</v>
       </c>
       <c r="F154">
-        <v>1190</v>
+        <v>1410</v>
       </c>
       <c r="G154">
         <v>1.3</v>
       </c>
       <c r="H154">
-        <v>1141</v>
+        <v>1359</v>
       </c>
       <c r="I154" s="1">
-        <v>230</v>
+        <v>370</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A155" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx2x1410x600</v>
+        <v>Columnx2x1010x600</v>
       </c>
       <c r="B155" t="s">
-        <v>19</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="C155" t="s">
+        <v>14</v>
       </c>
       <c r="D155">
         <v>2</v>
@@ -5390,58 +5318,58 @@
         <v>600</v>
       </c>
       <c r="F155">
-        <v>1410</v>
+        <v>1010</v>
       </c>
       <c r="G155">
         <v>1.3</v>
       </c>
       <c r="H155">
-        <v>1359</v>
+        <v>966</v>
       </c>
       <c r="I155" s="1">
-        <v>370</v>
+        <v>195</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A156" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx2x1010x600</v>
+        <v>Columnx3x812x600</v>
       </c>
       <c r="B156" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C156" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E156">
         <v>600</v>
       </c>
       <c r="F156">
-        <v>1010</v>
+        <v>812</v>
       </c>
       <c r="G156">
         <v>1.3</v>
       </c>
       <c r="H156">
-        <v>966</v>
+        <v>1035</v>
       </c>
       <c r="I156" s="1">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A157" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx3x812x600</v>
+        <v>Columnx3x628x600</v>
       </c>
       <c r="B157" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C157" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D157">
         <v>3</v>
@@ -5450,28 +5378,28 @@
         <v>600</v>
       </c>
       <c r="F157">
-        <v>812</v>
+        <v>628</v>
       </c>
       <c r="G157">
         <v>1.3</v>
       </c>
       <c r="H157">
-        <v>1035</v>
+        <v>792</v>
       </c>
       <c r="I157" s="1">
-        <v>193</v>
+        <v>161</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A158" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx3x628x600</v>
+        <v>Columnx3x1226x600</v>
       </c>
       <c r="B158" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D158">
         <v>3</v>
@@ -5480,28 +5408,28 @@
         <v>600</v>
       </c>
       <c r="F158">
-        <v>628</v>
+        <v>1226</v>
       </c>
       <c r="G158">
         <v>1.3</v>
       </c>
       <c r="H158">
-        <v>792</v>
+        <v>1583</v>
       </c>
       <c r="I158" s="1">
-        <v>161</v>
+        <v>355</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A159" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx3x1226x600</v>
+        <v>Columnx3x1042x600</v>
       </c>
       <c r="B159" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C159" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D159">
         <v>3</v>
@@ -5510,28 +5438,28 @@
         <v>600</v>
       </c>
       <c r="F159">
-        <v>1226</v>
+        <v>1042</v>
       </c>
       <c r="G159">
         <v>1.3</v>
       </c>
       <c r="H159">
-        <v>1583</v>
+        <v>1340</v>
       </c>
       <c r="I159" s="1">
-        <v>355</v>
+        <v>300</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A160" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx3x1042x600</v>
+        <v>Columnx3x1190x600</v>
       </c>
       <c r="B160" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C160" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D160">
         <v>3</v>
@@ -5540,28 +5468,28 @@
         <v>600</v>
       </c>
       <c r="F160">
-        <v>1042</v>
+        <v>1190</v>
       </c>
       <c r="G160">
         <v>1.3</v>
       </c>
       <c r="H160">
-        <v>1340</v>
+        <v>1478</v>
       </c>
       <c r="I160" s="1">
-        <v>300</v>
+        <v>260</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A161" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx3x1190x600</v>
+        <v>Columnx3x650x600</v>
       </c>
       <c r="B161" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C161" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D161">
         <v>3</v>
@@ -5570,28 +5498,28 @@
         <v>600</v>
       </c>
       <c r="F161">
-        <v>1190</v>
+        <v>650</v>
       </c>
       <c r="G161">
         <v>1.3</v>
       </c>
       <c r="H161">
-        <v>1478</v>
+        <v>801</v>
       </c>
       <c r="I161" s="1">
-        <v>260</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A162" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx3x650x600</v>
+        <v>Columnx3x830x600</v>
       </c>
       <c r="B162" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C162" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D162">
         <v>3</v>
@@ -5600,28 +5528,28 @@
         <v>600</v>
       </c>
       <c r="F162">
-        <v>650</v>
+        <v>830</v>
       </c>
       <c r="G162">
         <v>1.3</v>
       </c>
       <c r="H162">
-        <v>801</v>
+        <v>1030</v>
       </c>
       <c r="I162" s="1">
-        <v>160</v>
+        <v>195</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A163" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx3x830x600</v>
+        <v>Coumnx3x1010x600</v>
       </c>
       <c r="B163" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C163" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D163">
         <v>3</v>
@@ -5630,58 +5558,58 @@
         <v>600</v>
       </c>
       <c r="F163">
-        <v>830</v>
+        <v>1010</v>
       </c>
       <c r="G163">
         <v>1.3</v>
       </c>
       <c r="H163">
-        <v>1030</v>
+        <v>1258</v>
       </c>
       <c r="I163" s="1">
-        <v>195</v>
+        <v>250</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A164" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Coumnx3x1010x600</v>
+        <v>Columnx4x1226x600</v>
       </c>
       <c r="B164" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C164" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D164">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E164">
         <v>600</v>
       </c>
       <c r="F164">
-        <v>1010</v>
+        <v>1226</v>
       </c>
       <c r="G164">
         <v>1.3</v>
       </c>
       <c r="H164">
-        <v>1258</v>
+        <v>2079</v>
       </c>
       <c r="I164" s="1">
-        <v>250</v>
+        <v>400</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A165" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx4x1226x600</v>
+        <v>Columnx4x1042x600</v>
       </c>
       <c r="B165" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C165" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D165">
         <v>4</v>
@@ -5690,28 +5618,28 @@
         <v>600</v>
       </c>
       <c r="F165">
-        <v>1226</v>
+        <v>1042</v>
       </c>
       <c r="G165">
         <v>1.3</v>
       </c>
       <c r="H165">
-        <v>2079</v>
+        <v>1756</v>
       </c>
       <c r="I165" s="1">
-        <v>400</v>
+        <v>305</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A166" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx4x1042x600</v>
+        <v>Columnx4x812x600</v>
       </c>
       <c r="B166" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C166" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D166">
         <v>4</v>
@@ -5720,28 +5648,28 @@
         <v>600</v>
       </c>
       <c r="F166">
-        <v>1042</v>
+        <v>812</v>
       </c>
       <c r="G166">
         <v>1.3</v>
       </c>
       <c r="H166">
-        <v>1756</v>
+        <v>1356</v>
       </c>
       <c r="I166" s="1">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A167" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx4x812x600</v>
+        <v>Columnx4x628x600</v>
       </c>
       <c r="B167" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C167" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D167">
         <v>4</v>
@@ -5750,47 +5678,20 @@
         <v>600</v>
       </c>
       <c r="F167">
-        <v>812</v>
+        <v>628</v>
       </c>
       <c r="G167">
         <v>1.3</v>
       </c>
       <c r="H167">
-        <v>1356</v>
+        <v>1037</v>
       </c>
       <c r="I167" s="1">
-        <v>315</v>
+        <v>225</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A168" s="5" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx4x628x600</v>
-      </c>
-      <c r="B168" t="s">
-        <v>19</v>
-      </c>
-      <c r="C168" t="s">
-        <v>16</v>
-      </c>
-      <c r="D168">
-        <v>4</v>
-      </c>
-      <c r="E168">
-        <v>600</v>
-      </c>
-      <c r="F168">
-        <v>628</v>
-      </c>
-      <c r="G168">
-        <v>1.3</v>
-      </c>
-      <c r="H168">
-        <v>1037</v>
-      </c>
-      <c r="I168" s="1">
-        <v>225</v>
-      </c>
+      <c r="I168" s="1"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I169" s="1"/>
@@ -5800,9 +5701,6 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I171" s="1"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I172" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Radiator Database.xlsx
+++ b/Radiator Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Documents\GitSourceCode\Radiators\radiators2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FF4D04-226C-4614-BB82-BE6907DEBE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE1671B-3B87-403C-8920-CF669FC1C02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="16200" windowHeight="9307" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="338" yWindow="653" windowWidth="23317" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RadiatorDatabase" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="24">
   <si>
     <t>K1</t>
   </si>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t>Coumn</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>2 Col</t>
+  </si>
+  <si>
+    <t>3 Col</t>
+  </si>
+  <si>
+    <t>4 Col</t>
   </si>
 </sst>
 </file>
@@ -239,7 +251,7 @@
     <tableColumn id="1" xr3:uid="{9BB030BD-CDEC-486F-89D1-6094E4AC4FFD}" name="Key"/>
     <tableColumn id="8" xr3:uid="{419D97C0-0DD3-41A5-AEEC-E4BD5ABD92D4}" name="Manufacturer"/>
     <tableColumn id="9" xr3:uid="{65AB19FF-545F-45C0-91E1-3C67FB8F1335}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{544C4AF4-5968-4717-AA9B-0E94F3C02B13}" name="Subtype"/>
+    <tableColumn id="2" xr3:uid="{544C4AF4-5968-4717-AA9B-0E94F3C02B13}" name="Depth"/>
     <tableColumn id="3" xr3:uid="{2B0097BC-186B-4277-B0C6-7BA70194DE28}" name="Height"/>
     <tableColumn id="4" xr3:uid="{EF11971D-AD18-427C-9450-3A5339EB5CFF}" name="Length"/>
     <tableColumn id="7" xr3:uid="{CB4BA3F5-5EC0-43FC-9535-D19303225433}" name="N"/>
@@ -515,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FF5D92-B17B-4500-A196-AEEFF3505D3D}">
   <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -542,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -568,7 +580,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1000x600</v>
       </c>
       <c r="B2" t="s">
@@ -627,7 +639,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1100x600</v>
       </c>
       <c r="B4" t="s">
@@ -658,7 +670,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1200x600</v>
       </c>
       <c r="B5" t="s">
@@ -689,7 +701,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x900x600</v>
       </c>
       <c r="B6" t="s">
@@ -720,7 +732,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x800x600</v>
       </c>
       <c r="B7" t="s">
@@ -751,7 +763,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1800x600</v>
       </c>
       <c r="B8" t="s">
@@ -782,7 +794,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1600x600</v>
       </c>
       <c r="B9" t="s">
@@ -813,7 +825,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1400x600</v>
       </c>
       <c r="B10" t="s">
@@ -844,7 +856,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1200x450</v>
       </c>
       <c r="B11" t="s">
@@ -875,7 +887,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1000x450</v>
       </c>
       <c r="B12" t="s">
@@ -906,7 +918,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1100x450</v>
       </c>
       <c r="B13" t="s">
@@ -937,7 +949,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x700x600</v>
       </c>
       <c r="B14" t="s">
@@ -968,7 +980,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x900x450</v>
       </c>
       <c r="B15" t="s">
@@ -999,7 +1011,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x600x600</v>
       </c>
       <c r="B16" t="s">
@@ -1030,7 +1042,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x800x450</v>
       </c>
       <c r="B17" t="s">
@@ -1061,7 +1073,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x700x600</v>
       </c>
       <c r="B18" t="s">
@@ -1092,7 +1104,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x900x600</v>
       </c>
       <c r="B19" t="s">
@@ -1123,7 +1135,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1200x600</v>
       </c>
       <c r="B20" t="s">
@@ -1154,7 +1166,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x600x600</v>
       </c>
       <c r="B21" t="s">
@@ -1185,7 +1197,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1400x600</v>
       </c>
       <c r="B22" t="s">
@@ -1216,7 +1228,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1600x600</v>
       </c>
       <c r="B23" t="s">
@@ -1247,7 +1259,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1100x600</v>
       </c>
       <c r="B24" t="s">
@@ -1278,7 +1290,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x800x600</v>
       </c>
       <c r="B25" t="s">
@@ -1309,7 +1321,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1000x600</v>
       </c>
       <c r="B26" t="s">
@@ -1340,7 +1352,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1600x450</v>
       </c>
       <c r="B27" t="s">
@@ -1371,7 +1383,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1800x450</v>
       </c>
       <c r="B28" t="s">
@@ -1402,7 +1414,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1400x450</v>
       </c>
       <c r="B29" t="s">
@@ -1433,7 +1445,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x2000x450</v>
       </c>
       <c r="B30" t="s">
@@ -1464,7 +1476,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x700x450</v>
       </c>
       <c r="B31" t="s">
@@ -1495,7 +1507,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x500x600</v>
       </c>
       <c r="B32" t="s">
@@ -1526,7 +1538,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1000x700</v>
       </c>
       <c r="B33" t="s">
@@ -1557,7 +1569,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1800x600</v>
       </c>
       <c r="B34" t="s">
@@ -1588,7 +1600,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x500x600</v>
       </c>
       <c r="B35" t="s">
@@ -1619,7 +1631,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x600x450</v>
       </c>
       <c r="B36" t="s">
@@ -1650,7 +1662,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x400x600</v>
       </c>
       <c r="B37" t="s">
@@ -1681,7 +1693,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1100x700</v>
       </c>
       <c r="B38" t="s">
@@ -1712,7 +1724,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1200x700</v>
       </c>
       <c r="B39" t="s">
@@ -1743,7 +1755,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x2200x450</v>
       </c>
       <c r="B40" t="s">
@@ -1774,7 +1786,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x2400x450</v>
       </c>
       <c r="B41" t="s">
@@ -1805,7 +1817,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1100x450</v>
       </c>
       <c r="B42" t="s">
@@ -1836,7 +1848,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x800x450</v>
       </c>
       <c r="B43" t="s">
@@ -1867,7 +1879,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1600x450</v>
       </c>
       <c r="B44" t="s">
@@ -1898,7 +1910,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x600x450</v>
       </c>
       <c r="B45" t="s">
@@ -1929,7 +1941,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1000x450</v>
       </c>
       <c r="B46" t="s">
@@ -1960,7 +1972,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1400x450</v>
       </c>
       <c r="B47" t="s">
@@ -1991,7 +2003,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x900x450</v>
       </c>
       <c r="B48" t="s">
@@ -2022,7 +2034,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x700x450</v>
       </c>
       <c r="B49" t="s">
@@ -2053,7 +2065,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1200x450</v>
       </c>
       <c r="B50" t="s">
@@ -2084,7 +2096,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1000x300</v>
       </c>
       <c r="B51" t="s">
@@ -2115,7 +2127,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x2000x600</v>
       </c>
       <c r="B52" t="s">
@@ -2146,7 +2158,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x900x700</v>
       </c>
       <c r="B53" t="s">
@@ -2177,7 +2189,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1500x300</v>
       </c>
       <c r="B54" t="s">
@@ -2208,7 +2220,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x500x450</v>
       </c>
       <c r="B55" t="s">
@@ -2239,7 +2251,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x800x700</v>
       </c>
       <c r="B56" t="s">
@@ -2270,7 +2282,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x2000x300</v>
       </c>
       <c r="B57" t="s">
@@ -2301,7 +2313,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1600x700</v>
       </c>
       <c r="B58" t="s">
@@ -2332,7 +2344,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1800x700</v>
       </c>
       <c r="B59" t="s">
@@ -2363,7 +2375,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1400x700</v>
       </c>
       <c r="B60" t="s">
@@ -2394,7 +2406,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x400x600</v>
       </c>
       <c r="B61" t="s">
@@ -2425,7 +2437,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxP+x1000x300</v>
       </c>
       <c r="B62" t="s">
@@ -2456,7 +2468,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x2000x700</v>
       </c>
       <c r="B63" t="s">
@@ -2487,7 +2499,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x400x450</v>
       </c>
       <c r="B64" t="s">
@@ -2518,7 +2530,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x700x700</v>
       </c>
       <c r="B65" t="s">
@@ -2549,7 +2561,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1200x500</v>
       </c>
       <c r="B66" t="s">
@@ -2580,7 +2592,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxP+x1000x700</v>
       </c>
       <c r="B67" t="s">
@@ -2611,7 +2623,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1100x600</v>
       </c>
       <c r="B68" t="s">
@@ -2642,7 +2654,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x500x450</v>
       </c>
       <c r="B69" t="s">
@@ -2673,7 +2685,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1100x500</v>
       </c>
       <c r="B70" t="s">
@@ -2704,7 +2716,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1200x600</v>
       </c>
       <c r="B71" t="s">
@@ -2735,7 +2747,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1000x500</v>
       </c>
       <c r="B72" t="s">
@@ -2766,7 +2778,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1000x600</v>
       </c>
       <c r="B73" t="s">
@@ -2797,7 +2809,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxP+x1200x700</v>
       </c>
       <c r="B74" t="s">
@@ -2828,7 +2840,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x2200x600</v>
       </c>
       <c r="B75" t="s">
@@ -2859,7 +2871,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x2400x600</v>
       </c>
       <c r="B76" t="s">
@@ -2890,7 +2902,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x2000x600</v>
       </c>
       <c r="B77" t="s">
@@ -2921,7 +2933,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x500x300</v>
       </c>
       <c r="B78" t="s">
@@ -2952,7 +2964,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1500x300</v>
       </c>
       <c r="B79" t="s">
@@ -2983,7 +2995,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxP+x900x700</v>
       </c>
       <c r="B80" t="s">
@@ -3014,7 +3026,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxP+x800x700</v>
       </c>
       <c r="B81" t="s">
@@ -3045,7 +3057,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x900x500</v>
       </c>
       <c r="B82" t="s">
@@ -3076,7 +3088,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x900x600</v>
       </c>
       <c r="B83" t="s">
@@ -3107,7 +3119,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxP+x700x700</v>
       </c>
       <c r="B84" t="s">
@@ -3138,7 +3150,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1000x300</v>
       </c>
       <c r="B85" t="s">
@@ -3169,7 +3181,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x600x700</v>
       </c>
       <c r="B86" t="s">
@@ -3200,7 +3212,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x800x700</v>
       </c>
       <c r="B87" t="s">
@@ -3231,7 +3243,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1100x700</v>
       </c>
       <c r="B88" t="s">
@@ -3262,7 +3274,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x700x700</v>
       </c>
       <c r="B89" t="s">
@@ -3293,7 +3305,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1000x700</v>
       </c>
       <c r="B90" t="s">
@@ -3324,7 +3336,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x600x700</v>
       </c>
       <c r="B91" t="s">
@@ -3355,7 +3367,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1400x700</v>
       </c>
       <c r="B92" t="s">
@@ -3386,7 +3398,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1600x700</v>
       </c>
       <c r="B93" t="s">
@@ -3417,7 +3429,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1200x700</v>
       </c>
       <c r="B94" t="s">
@@ -3448,7 +3460,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x900x700</v>
       </c>
       <c r="B95" t="s">
@@ -3479,7 +3491,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxP+x1400x700</v>
       </c>
       <c r="B96" t="s">
@@ -3510,7 +3522,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x800x600</v>
       </c>
       <c r="B97" t="s">
@@ -3541,7 +3553,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x800x500</v>
       </c>
       <c r="B98" t="s">
@@ -3572,7 +3584,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x2400x600</v>
       </c>
       <c r="B99" t="s">
@@ -3603,7 +3615,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x2200x600</v>
       </c>
       <c r="B100" t="s">
@@ -3634,7 +3646,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxP+x1100x700</v>
       </c>
       <c r="B101" t="s">
@@ -3665,7 +3677,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x2400x450</v>
       </c>
       <c r="B102" t="s">
@@ -3696,7 +3708,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxP+x600x700</v>
       </c>
       <c r="B103" t="s">
@@ -3727,7 +3739,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1800x500</v>
       </c>
       <c r="B104" t="s">
@@ -3758,7 +3770,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1800x600</v>
       </c>
       <c r="B105" t="s">
@@ -3789,7 +3801,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1400x500</v>
       </c>
       <c r="B106" t="s">
@@ -3820,7 +3832,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1600x600</v>
       </c>
       <c r="B107" t="s">
@@ -3851,7 +3863,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1400x600</v>
       </c>
       <c r="B108" t="s">
@@ -3882,7 +3894,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1600x500</v>
       </c>
       <c r="B109" t="s">
@@ -3913,7 +3925,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x400x450</v>
       </c>
       <c r="B110" t="s">
@@ -3944,7 +3956,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1800x450</v>
       </c>
       <c r="B111" t="s">
@@ -3975,7 +3987,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x500x700</v>
       </c>
       <c r="B112" t="s">
@@ -4006,7 +4018,7 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x1800x700</v>
       </c>
       <c r="B113" t="s">
@@ -4037,7 +4049,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x700x500</v>
       </c>
       <c r="B114" t="s">
@@ -4068,7 +4080,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A115" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x700x600</v>
       </c>
       <c r="B115" t="s">
@@ -4099,7 +4111,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A116" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x2000x450</v>
       </c>
       <c r="B116" t="s">
@@ -4130,7 +4142,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxP+x1500x300</v>
       </c>
       <c r="B117" t="s">
@@ -4161,7 +4173,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxP+x500x300</v>
       </c>
       <c r="B118" t="s">
@@ -4192,7 +4204,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A119" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1100x700</v>
       </c>
       <c r="B119" t="s">
@@ -4223,7 +4235,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A120" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1000x700</v>
       </c>
       <c r="B120" t="s">
@@ -4254,7 +4266,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A121" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1200x700</v>
       </c>
       <c r="B121" t="s">
@@ -4285,7 +4297,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A122" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxP+x400x700</v>
       </c>
       <c r="B122" t="s">
@@ -4316,7 +4328,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A123" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x2000x700</v>
       </c>
       <c r="B123" t="s">
@@ -4347,7 +4359,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A124" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x500x700</v>
       </c>
       <c r="B124" t="s">
@@ -4378,7 +4390,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A125" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxP+x500x700</v>
       </c>
       <c r="B125" t="s">
@@ -4409,7 +4421,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A126" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x400x700</v>
       </c>
       <c r="B126" t="s">
@@ -4440,7 +4452,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A127" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x600x600</v>
       </c>
       <c r="B127" t="s">
@@ -4471,7 +4483,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A128" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x600x500</v>
       </c>
       <c r="B128" t="s">
@@ -4502,7 +4514,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A129" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x900x700</v>
       </c>
       <c r="B129" t="s">
@@ -4533,7 +4545,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A130" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x500x300</v>
       </c>
       <c r="B130" t="s">
@@ -4564,7 +4576,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A131" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x800x700</v>
       </c>
       <c r="B131" t="s">
@@ -4595,7 +4607,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A132" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x2200x450</v>
       </c>
       <c r="B132" t="s">
@@ -4626,7 +4638,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A133" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1600x700</v>
       </c>
       <c r="B133" t="s">
@@ -4657,7 +4669,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A134" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1400x700</v>
       </c>
       <c r="B134" t="s">
@@ -4688,7 +4700,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A135" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1800x700</v>
       </c>
       <c r="B135" t="s">
@@ -4719,7 +4731,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A136" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x500x600</v>
       </c>
       <c r="B136" t="s">
@@ -4750,7 +4762,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A137" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK1x400x700</v>
       </c>
       <c r="B137" t="s">
@@ -4781,7 +4793,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A138" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x2000x700</v>
       </c>
       <c r="B138" t="s">
@@ -4812,7 +4824,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A139" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x700x700</v>
       </c>
       <c r="B139" t="s">
@@ -4843,7 +4855,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A140" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x400x600</v>
       </c>
       <c r="B140" t="s">
@@ -4874,7 +4886,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A141" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x600x700</v>
       </c>
       <c r="B141" t="s">
@@ -4905,7 +4917,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A142" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1000x300</v>
       </c>
       <c r="B142" t="s">
@@ -4936,7 +4948,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A143" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x2400x500</v>
       </c>
       <c r="B143" t="s">
@@ -4967,7 +4979,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A144" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x2000x600</v>
       </c>
       <c r="B144" t="s">
@@ -4998,7 +5010,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A145" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x2000x500</v>
       </c>
       <c r="B145" t="s">
@@ -5029,7 +5041,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A146" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x2400x600</v>
       </c>
       <c r="B146" t="s">
@@ -5060,7 +5072,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A147" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x2000x300</v>
       </c>
       <c r="B147" t="s">
@@ -5091,7 +5103,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A148" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x500x700</v>
       </c>
       <c r="B148" t="s">
@@ -5122,8 +5134,8 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A149" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx2x1042x600</v>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx2 Colx1042x600</v>
       </c>
       <c r="B149" t="s">
         <v>17</v>
@@ -5131,8 +5143,8 @@
       <c r="C149" t="s">
         <v>14</v>
       </c>
-      <c r="D149">
-        <v>2</v>
+      <c r="D149" t="s">
+        <v>21</v>
       </c>
       <c r="E149">
         <v>600</v>
@@ -5152,8 +5164,8 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A150" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx2x628x600</v>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx2 Colx628x600</v>
       </c>
       <c r="B150" t="s">
         <v>17</v>
@@ -5161,8 +5173,8 @@
       <c r="C150" t="s">
         <v>14</v>
       </c>
-      <c r="D150">
-        <v>2</v>
+      <c r="D150" t="s">
+        <v>21</v>
       </c>
       <c r="E150">
         <v>600</v>
@@ -5182,8 +5194,8 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A151" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx3x812x600</v>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx3 Colx812x600</v>
       </c>
       <c r="B151" t="s">
         <v>17</v>
@@ -5191,8 +5203,8 @@
       <c r="C151" t="s">
         <v>14</v>
       </c>
-      <c r="D151">
-        <v>3</v>
+      <c r="D151" t="s">
+        <v>22</v>
       </c>
       <c r="E151">
         <v>600</v>
@@ -5212,8 +5224,8 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx2x1226x600</v>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx2 Colx1226x600</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>17</v>
@@ -5221,8 +5233,8 @@
       <c r="C152" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D152">
-        <v>2</v>
+      <c r="D152" t="s">
+        <v>21</v>
       </c>
       <c r="E152">
         <v>600</v>
@@ -5242,8 +5254,8 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A153" s="5" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx2x1190x600</v>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx2 Colx1190x600</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>18</v>
@@ -5251,8 +5263,8 @@
       <c r="C153" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D153">
-        <v>2</v>
+      <c r="D153" t="s">
+        <v>21</v>
       </c>
       <c r="E153">
         <v>600</v>
@@ -5272,8 +5284,8 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A154" s="5" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx2x1410x600</v>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx2 Colx1410x600</v>
       </c>
       <c r="B154" t="s">
         <v>17</v>
@@ -5281,8 +5293,8 @@
       <c r="C154" t="s">
         <v>14</v>
       </c>
-      <c r="D154">
-        <v>2</v>
+      <c r="D154" t="s">
+        <v>21</v>
       </c>
       <c r="E154">
         <v>600</v>
@@ -5302,8 +5314,8 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A155" s="5" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx2x1010x600</v>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx2 Colx1010x600</v>
       </c>
       <c r="B155" t="s">
         <v>18</v>
@@ -5311,8 +5323,8 @@
       <c r="C155" t="s">
         <v>14</v>
       </c>
-      <c r="D155">
-        <v>2</v>
+      <c r="D155" t="s">
+        <v>21</v>
       </c>
       <c r="E155">
         <v>600</v>
@@ -5332,8 +5344,8 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A156" s="5" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx3x812x600</v>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx3 Colx812x600</v>
       </c>
       <c r="B156" t="s">
         <v>17</v>
@@ -5341,8 +5353,8 @@
       <c r="C156" t="s">
         <v>14</v>
       </c>
-      <c r="D156">
-        <v>3</v>
+      <c r="D156" t="s">
+        <v>22</v>
       </c>
       <c r="E156">
         <v>600</v>
@@ -5362,8 +5374,8 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A157" s="5" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx3x628x600</v>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx3 Colx628x600</v>
       </c>
       <c r="B157" t="s">
         <v>17</v>
@@ -5371,8 +5383,8 @@
       <c r="C157" t="s">
         <v>14</v>
       </c>
-      <c r="D157">
-        <v>3</v>
+      <c r="D157" t="s">
+        <v>22</v>
       </c>
       <c r="E157">
         <v>600</v>
@@ -5392,8 +5404,8 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A158" s="5" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx3x1226x600</v>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx3 Colx1226x600</v>
       </c>
       <c r="B158" t="s">
         <v>17</v>
@@ -5401,8 +5413,8 @@
       <c r="C158" t="s">
         <v>14</v>
       </c>
-      <c r="D158">
-        <v>3</v>
+      <c r="D158" t="s">
+        <v>22</v>
       </c>
       <c r="E158">
         <v>600</v>
@@ -5422,8 +5434,8 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A159" s="5" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx3x1042x600</v>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx3 Colx1042x600</v>
       </c>
       <c r="B159" t="s">
         <v>17</v>
@@ -5431,8 +5443,8 @@
       <c r="C159" t="s">
         <v>14</v>
       </c>
-      <c r="D159">
-        <v>3</v>
+      <c r="D159" t="s">
+        <v>22</v>
       </c>
       <c r="E159">
         <v>600</v>
@@ -5452,8 +5464,8 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A160" s="5" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx3x1190x600</v>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx3 Colx1190x600</v>
       </c>
       <c r="B160" t="s">
         <v>18</v>
@@ -5461,8 +5473,8 @@
       <c r="C160" t="s">
         <v>14</v>
       </c>
-      <c r="D160">
-        <v>3</v>
+      <c r="D160" t="s">
+        <v>22</v>
       </c>
       <c r="E160">
         <v>600</v>
@@ -5482,8 +5494,8 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A161" s="5" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx3x650x600</v>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx3 Colx650x600</v>
       </c>
       <c r="B161" t="s">
         <v>18</v>
@@ -5491,8 +5503,8 @@
       <c r="C161" t="s">
         <v>14</v>
       </c>
-      <c r="D161">
-        <v>3</v>
+      <c r="D161" t="s">
+        <v>22</v>
       </c>
       <c r="E161">
         <v>600</v>
@@ -5512,8 +5524,8 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A162" s="5" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx3x830x600</v>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx3 Colx830x600</v>
       </c>
       <c r="B162" t="s">
         <v>18</v>
@@ -5521,8 +5533,8 @@
       <c r="C162" t="s">
         <v>14</v>
       </c>
-      <c r="D162">
-        <v>3</v>
+      <c r="D162" t="s">
+        <v>22</v>
       </c>
       <c r="E162">
         <v>600</v>
@@ -5542,8 +5554,8 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A163" s="5" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Coumnx3x1010x600</v>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Coumnx3 Colx1010x600</v>
       </c>
       <c r="B163" t="s">
         <v>18</v>
@@ -5551,8 +5563,8 @@
       <c r="C163" t="s">
         <v>19</v>
       </c>
-      <c r="D163">
-        <v>3</v>
+      <c r="D163" t="s">
+        <v>22</v>
       </c>
       <c r="E163">
         <v>600</v>
@@ -5572,8 +5584,8 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A164" s="5" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx4x1226x600</v>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx4 Colx1226x600</v>
       </c>
       <c r="B164" t="s">
         <v>17</v>
@@ -5581,8 +5593,8 @@
       <c r="C164" t="s">
         <v>14</v>
       </c>
-      <c r="D164">
-        <v>4</v>
+      <c r="D164" t="s">
+        <v>23</v>
       </c>
       <c r="E164">
         <v>600</v>
@@ -5602,8 +5614,8 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A165" s="5" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx4x1042x600</v>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx4 Colx1042x600</v>
       </c>
       <c r="B165" t="s">
         <v>17</v>
@@ -5611,8 +5623,8 @@
       <c r="C165" t="s">
         <v>14</v>
       </c>
-      <c r="D165">
-        <v>4</v>
+      <c r="D165" t="s">
+        <v>23</v>
       </c>
       <c r="E165">
         <v>600</v>
@@ -5632,8 +5644,8 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A166" s="5" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx4x812x600</v>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx4 Colx812x600</v>
       </c>
       <c r="B166" t="s">
         <v>17</v>
@@ -5641,8 +5653,8 @@
       <c r="C166" t="s">
         <v>14</v>
       </c>
-      <c r="D166">
-        <v>4</v>
+      <c r="D166" t="s">
+        <v>23</v>
       </c>
       <c r="E166">
         <v>600</v>
@@ -5662,8 +5674,8 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A167" s="5" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Subtype]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx4x628x600</v>
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx4 Colx628x600</v>
       </c>
       <c r="B167" t="s">
         <v>17</v>
@@ -5671,8 +5683,8 @@
       <c r="C167" t="s">
         <v>14</v>
       </c>
-      <c r="D167">
-        <v>4</v>
+      <c r="D167" t="s">
+        <v>23</v>
       </c>
       <c r="E167">
         <v>600</v>

--- a/Radiator Database.xlsx
+++ b/Radiator Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Documents\GitSourceCode\Radiators\radiators2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE1671B-3B87-403C-8920-CF669FC1C02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD446A0-3937-47A5-B7D7-14DC7DFD118F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="338" yWindow="653" windowWidth="23317" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19838" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RadiatorDatabase" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="22">
   <si>
     <t>K1</t>
   </si>
@@ -88,9 +88,6 @@
     <t>K3</t>
   </si>
   <si>
-    <t>Key</t>
-  </si>
-  <si>
     <t>Subtype</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>Fudge</t>
   </si>
   <si>
     <t>Column</t>
@@ -118,9 +112,6 @@
     <t>Azur</t>
   </si>
   <si>
-    <t>Coumn</t>
-  </si>
-  <si>
     <t>Depth</t>
   </si>
   <si>
@@ -131,6 +122,9 @@
   </si>
   <si>
     <t>4 Col</t>
+  </si>
+  <si>
+    <t>Radiator Key</t>
   </si>
 </sst>
 </file>
@@ -245,10 +239,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58EEB467-E210-4341-8481-A47BCCD8FBA1}" name="RadiatorDatabase" displayName="RadiatorDatabase" ref="A1:I171" totalsRowShown="0">
-  <autoFilter ref="A1:I171" xr:uid="{58EEB467-E210-4341-8481-A47BCCD8FBA1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58EEB467-E210-4341-8481-A47BCCD8FBA1}" name="RadiatorDatabase" displayName="RadiatorDatabase" ref="A1:I170" totalsRowShown="0">
+  <autoFilter ref="A1:I170" xr:uid="{58EEB467-E210-4341-8481-A47BCCD8FBA1}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9BB030BD-CDEC-486F-89D1-6094E4AC4FFD}" name="Key"/>
+    <tableColumn id="1" xr3:uid="{9BB030BD-CDEC-486F-89D1-6094E4AC4FFD}" name="Radiator Key"/>
     <tableColumn id="8" xr3:uid="{419D97C0-0DD3-41A5-AEEC-E4BD5ABD92D4}" name="Manufacturer"/>
     <tableColumn id="9" xr3:uid="{65AB19FF-545F-45C0-91E1-3C67FB8F1335}" name="Type"/>
     <tableColumn id="2" xr3:uid="{544C4AF4-5968-4717-AA9B-0E94F3C02B13}" name="Depth"/>
@@ -525,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FF5D92-B17B-4500-A196-AEEFF3505D3D}">
-  <dimension ref="A1:N171"/>
+  <dimension ref="A1:N170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="G152" sqref="G152"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -545,16 +539,16 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -563,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -575,7 +569,7 @@
         <v>3</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
@@ -584,10 +578,10 @@
         <v>ModernxK2x1000x600</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -609,44 +603,46 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>13</v>
+      <c r="A3" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>ModernxK2x1100x600</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F3">
-        <v>999</v>
+        <v>1100</v>
       </c>
       <c r="G3">
+        <f>G2</f>
         <v>1.3</v>
       </c>
       <c r="H3">
-        <v>6000</v>
+        <v>1905</v>
       </c>
       <c r="I3" s="1">
-        <v>1234</v>
+        <v>109.61</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1100x600</v>
+        <v>ModernxK2x1200x600</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -655,29 +651,29 @@
         <v>600</v>
       </c>
       <c r="F4">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G4">
-        <f>G2</f>
+        <f t="shared" ref="G4:G67" si="0">G3</f>
         <v>1.3</v>
       </c>
       <c r="H4">
-        <v>1905</v>
+        <v>2078</v>
       </c>
       <c r="I4" s="1">
-        <v>109.61</v>
+        <v>119.57</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1200x600</v>
+        <v>ModernxK2x900x600</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -686,29 +682,29 @@
         <v>600</v>
       </c>
       <c r="F5">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G68" si="0">G4</f>
+        <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H5">
-        <v>2078</v>
+        <v>1559</v>
       </c>
       <c r="I5" s="1">
-        <v>119.57</v>
+        <v>93.42</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x900x600</v>
+        <v>ModernxK2x800x600</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
@@ -717,29 +713,29 @@
         <v>600</v>
       </c>
       <c r="F6">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H6">
-        <v>1559</v>
+        <v>1386</v>
       </c>
       <c r="I6" s="1">
-        <v>93.42</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x800x600</v>
+        <v>ModernxK2x1800x600</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
@@ -748,29 +744,29 @@
         <v>600</v>
       </c>
       <c r="F7">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H7">
-        <v>1386</v>
+        <v>3118</v>
       </c>
       <c r="I7" s="1">
-        <v>86.36</v>
+        <v>198.04</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1800x600</v>
+        <v>ModernxK2x1600x600</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
@@ -779,29 +775,29 @@
         <v>600</v>
       </c>
       <c r="F8">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H8">
-        <v>3118</v>
+        <v>2771</v>
       </c>
       <c r="I8" s="1">
-        <v>198.04</v>
+        <v>176.02</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1600x600</v>
+        <v>ModernxK2x1400x600</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
@@ -810,60 +806,60 @@
         <v>600</v>
       </c>
       <c r="F9">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H9">
-        <v>2771</v>
+        <v>2425</v>
       </c>
       <c r="I9" s="1">
-        <v>176.02</v>
+        <v>154.06</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1400x600</v>
+        <v>ModernxK2x1200x450</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
       <c r="E10">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="F10">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H10">
-        <v>2425</v>
+        <v>1645</v>
       </c>
       <c r="I10" s="1">
-        <v>154.06</v>
+        <v>109.61</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1200x450</v>
+        <v>ModernxK2x1000x450</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
@@ -872,29 +868,29 @@
         <v>450</v>
       </c>
       <c r="F11">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H11">
-        <v>1645</v>
+        <v>1371</v>
       </c>
       <c r="I11" s="1">
-        <v>109.61</v>
+        <v>91.36</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1000x450</v>
+        <v>ModernxK2x1100x450</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
@@ -903,184 +899,184 @@
         <v>450</v>
       </c>
       <c r="F12">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H12">
-        <v>1371</v>
+        <v>1508</v>
       </c>
       <c r="I12" s="1">
-        <v>91.36</v>
+        <v>100.52</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1100x450</v>
+        <v>ModernxK2x700x600</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
       <c r="E13">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="F13">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H13">
-        <v>1508</v>
+        <v>1212</v>
       </c>
       <c r="I13" s="1">
-        <v>100.52</v>
+        <v>81.84</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x700x600</v>
+        <v>ModernxK2x900x450</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
       <c r="E14">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="F14">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H14">
-        <v>1212</v>
+        <v>1234</v>
       </c>
       <c r="I14" s="1">
-        <v>81.84</v>
+        <v>85.67</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x900x450</v>
+        <v>ModernxK2x600x600</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
       </c>
       <c r="E15">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="F15">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H15">
-        <v>1234</v>
+        <v>1039</v>
       </c>
       <c r="I15" s="1">
-        <v>85.67</v>
+        <v>74.739999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x600x600</v>
+        <v>ModernxK2x800x450</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
       </c>
       <c r="E16">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="F16">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H16">
-        <v>1039</v>
+        <v>1097</v>
       </c>
       <c r="I16" s="1">
-        <v>74.739999999999995</v>
+        <v>79.19</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x800x450</v>
+        <v>ModernxK1x700x600</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="F17">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H17">
-        <v>1097</v>
+        <v>686</v>
       </c>
       <c r="I17" s="1">
-        <v>79.19</v>
+        <v>49.78</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x700x600</v>
+        <v>ModernxK1x900x600</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
         <v>0</v>
@@ -1089,29 +1085,29 @@
         <v>600</v>
       </c>
       <c r="F18">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H18">
-        <v>686</v>
+        <v>882</v>
       </c>
       <c r="I18" s="1">
-        <v>49.78</v>
+        <v>64.02</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x900x600</v>
+        <v>ModernxK1x1200x600</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
         <v>0</v>
@@ -1120,29 +1116,29 @@
         <v>600</v>
       </c>
       <c r="F19">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H19">
-        <v>882</v>
+        <v>1176</v>
       </c>
       <c r="I19" s="1">
-        <v>64.02</v>
+        <v>85.36</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1200x600</v>
+        <v>ModernxK1x600x600</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
         <v>0</v>
@@ -1151,29 +1147,29 @@
         <v>600</v>
       </c>
       <c r="F20">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H20">
-        <v>1176</v>
+        <v>588</v>
       </c>
       <c r="I20" s="1">
-        <v>85.36</v>
+        <v>42.69</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x600x600</v>
+        <v>ModernxK1x1400x600</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
         <v>0</v>
@@ -1182,29 +1178,29 @@
         <v>600</v>
       </c>
       <c r="F21">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H21">
-        <v>588</v>
+        <v>1372</v>
       </c>
       <c r="I21" s="1">
-        <v>42.69</v>
+        <v>99.61</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1400x600</v>
+        <v>ModernxK1x1600x600</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
         <v>0</v>
@@ -1213,29 +1209,29 @@
         <v>600</v>
       </c>
       <c r="F22">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H22">
-        <v>1372</v>
+        <v>1568</v>
       </c>
       <c r="I22" s="1">
-        <v>99.61</v>
+        <v>113.84</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1600x600</v>
+        <v>ModernxK1x1100x600</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
         <v>0</v>
@@ -1244,29 +1240,29 @@
         <v>600</v>
       </c>
       <c r="F23">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H23">
-        <v>1568</v>
+        <v>1078</v>
       </c>
       <c r="I23" s="1">
-        <v>113.84</v>
+        <v>78.27</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1100x600</v>
+        <v>ModernxK1x800x600</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
         <v>0</v>
@@ -1275,29 +1271,29 @@
         <v>600</v>
       </c>
       <c r="F24">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H24">
-        <v>1078</v>
+        <v>784</v>
       </c>
       <c r="I24" s="1">
-        <v>78.27</v>
+        <v>56.94</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x800x600</v>
+        <v>ModernxK1x1000x600</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
         <v>0</v>
@@ -1306,60 +1302,60 @@
         <v>600</v>
       </c>
       <c r="F25">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H25">
-        <v>784</v>
+        <v>980</v>
       </c>
       <c r="I25" s="1">
-        <v>56.94</v>
+        <v>71.739999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1000x600</v>
+        <v>ModernxK2x1600x450</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="F26">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H26">
-        <v>980</v>
+        <v>2194</v>
       </c>
       <c r="I26" s="1">
-        <v>71.739999999999995</v>
+        <v>161.37</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1600x450</v>
+        <v>ModernxK2x1800x450</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
         <v>2</v>
@@ -1368,29 +1364,29 @@
         <v>450</v>
       </c>
       <c r="F27">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H27">
-        <v>2194</v>
+        <v>2468</v>
       </c>
       <c r="I27" s="1">
-        <v>161.37</v>
+        <v>181.58</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1800x450</v>
+        <v>ModernxK2x1400x450</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
@@ -1399,29 +1395,29 @@
         <v>450</v>
       </c>
       <c r="F28">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H28">
-        <v>2468</v>
+        <v>1919</v>
       </c>
       <c r="I28" s="1">
-        <v>181.58</v>
+        <v>141.21</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1400x450</v>
+        <v>ModernxK2x2000x450</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
         <v>2</v>
@@ -1430,29 +1426,29 @@
         <v>450</v>
       </c>
       <c r="F29">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H29">
-        <v>1919</v>
+        <v>2742</v>
       </c>
       <c r="I29" s="1">
-        <v>141.21</v>
+        <v>209.8</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x2000x450</v>
+        <v>ModernxK2x700x450</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
         <v>2</v>
@@ -1461,122 +1457,122 @@
         <v>450</v>
       </c>
       <c r="F30">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H30">
-        <v>2742</v>
+        <v>960</v>
       </c>
       <c r="I30" s="1">
-        <v>209.8</v>
+        <v>74.599999999999994</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x700x450</v>
+        <v>ModernxK2x500x600</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
         <v>2</v>
       </c>
       <c r="E31">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="F31">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H31">
-        <v>960</v>
+        <v>866</v>
       </c>
       <c r="I31" s="1">
-        <v>74.599999999999994</v>
+        <v>67.489999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x500x600</v>
+        <v>ModernxK2x1000x700</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
         <v>2</v>
       </c>
       <c r="E32">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F32">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H32">
-        <v>866</v>
+        <v>1961</v>
       </c>
       <c r="I32" s="1">
-        <v>67.489999999999995</v>
+        <v>154.36000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1000x700</v>
+        <v>ModernxK1x1800x600</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F33">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H33">
-        <v>1961</v>
+        <v>1764</v>
       </c>
       <c r="I33" s="1">
-        <v>154.36000000000001</v>
+        <v>139.06</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1800x600</v>
+        <v>ModernxK1x500x600</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
         <v>0</v>
@@ -1585,122 +1581,122 @@
         <v>600</v>
       </c>
       <c r="F34">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H34">
-        <v>1764</v>
+        <v>490</v>
       </c>
       <c r="I34" s="1">
-        <v>139.06</v>
+        <v>40.659999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x500x600</v>
+        <v>ModernxK2x600x450</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="F35">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H35">
-        <v>490</v>
+        <v>823</v>
       </c>
       <c r="I35" s="1">
-        <v>40.659999999999997</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x600x450</v>
+        <v>ModernxK2x400x600</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
       </c>
       <c r="E36">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="F36">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H36">
-        <v>823</v>
+        <v>693</v>
       </c>
       <c r="I36" s="1">
-        <v>68.5</v>
+        <v>58.14</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x400x600</v>
+        <v>ModernxK2x1100x700</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
         <v>2</v>
       </c>
       <c r="E37">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F37">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H37">
-        <v>693</v>
+        <v>2157</v>
       </c>
       <c r="I37" s="1">
-        <v>58.14</v>
+        <v>181.9</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1100x700</v>
+        <v>ModernxK2x1200x700</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
         <v>2</v>
@@ -1709,60 +1705,60 @@
         <v>700</v>
       </c>
       <c r="F38">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H38">
-        <v>2157</v>
+        <v>2353</v>
       </c>
       <c r="I38" s="1">
-        <v>181.9</v>
+        <v>198.48</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1200x700</v>
+        <v>ModernxK2x2200x450</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
         <v>2</v>
       </c>
       <c r="E39">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="F39">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H39">
-        <v>2353</v>
+        <v>3016</v>
       </c>
       <c r="I39" s="1">
-        <v>198.48</v>
+        <v>257.01</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x2200x450</v>
+        <v>ModernxK2x2400x450</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
         <v>2</v>
@@ -1771,60 +1767,60 @@
         <v>450</v>
       </c>
       <c r="F40">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H40">
-        <v>3016</v>
+        <v>3290</v>
       </c>
       <c r="I40" s="1">
-        <v>257.01</v>
+        <v>280.38</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x2400x450</v>
+        <v>ModernxK1x1100x450</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>450</v>
       </c>
       <c r="F41">
-        <v>2400</v>
+        <v>1100</v>
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H41">
-        <v>3290</v>
+        <v>832</v>
       </c>
       <c r="I41" s="1">
-        <v>280.38</v>
+        <v>71.739999999999995</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1100x450</v>
+        <v>ModernxK1x800x450</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
         <v>0</v>
@@ -1833,29 +1829,29 @@
         <v>450</v>
       </c>
       <c r="F42">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H42">
-        <v>832</v>
+        <v>605</v>
       </c>
       <c r="I42" s="1">
-        <v>71.739999999999995</v>
+        <v>52.17</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x800x450</v>
+        <v>ModernxK1x1600x450</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
         <v>0</v>
@@ -1864,29 +1860,29 @@
         <v>450</v>
       </c>
       <c r="F43">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="G43">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H43">
-        <v>605</v>
+        <v>1210</v>
       </c>
       <c r="I43" s="1">
-        <v>52.17</v>
+        <v>104.34</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1600x450</v>
+        <v>ModernxK1x600x450</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
         <v>0</v>
@@ -1895,29 +1891,29 @@
         <v>450</v>
       </c>
       <c r="F44">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H44">
-        <v>1210</v>
+        <v>454</v>
       </c>
       <c r="I44" s="1">
-        <v>104.34</v>
+        <v>39.15</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x600x450</v>
+        <v>ModernxK1x1000x450</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
         <v>0</v>
@@ -1926,29 +1922,29 @@
         <v>450</v>
       </c>
       <c r="F45">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G45">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H45">
-        <v>454</v>
+        <v>756</v>
       </c>
       <c r="I45" s="1">
-        <v>39.15</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1000x450</v>
+        <v>ModernxK1x1400x450</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
         <v>0</v>
@@ -1957,29 +1953,29 @@
         <v>450</v>
       </c>
       <c r="F46">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H46">
-        <v>756</v>
+        <v>1058</v>
       </c>
       <c r="I46" s="1">
-        <v>65.2</v>
+        <v>91.29</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1400x450</v>
+        <v>ModernxK1x900x450</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
         <v>0</v>
@@ -1988,29 +1984,29 @@
         <v>450</v>
       </c>
       <c r="F47">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H47">
-        <v>1058</v>
+        <v>680</v>
       </c>
       <c r="I47" s="1">
-        <v>91.29</v>
+        <v>58.68</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x900x450</v>
+        <v>ModernxK1x700x450</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
         <v>0</v>
@@ -2019,29 +2015,29 @@
         <v>450</v>
       </c>
       <c r="F48">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H48">
-        <v>680</v>
+        <v>529</v>
       </c>
       <c r="I48" s="1">
-        <v>58.68</v>
+        <v>45.65</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x700x450</v>
+        <v>ModernxK1x1200x450</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
         <v>0</v>
@@ -2050,277 +2046,277 @@
         <v>450</v>
       </c>
       <c r="F49">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H49">
-        <v>529</v>
+        <v>907</v>
       </c>
       <c r="I49" s="1">
-        <v>45.65</v>
+        <v>78.27</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1200x450</v>
+        <v>ModernxK2x1000x300</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="F50">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="G50">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H50">
-        <v>907</v>
+        <v>982</v>
       </c>
       <c r="I50" s="1">
-        <v>78.27</v>
+        <v>85.18</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1000x300</v>
+        <v>ModernxK2x2000x600</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
         <v>2</v>
       </c>
       <c r="E51">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F51">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G51">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H51">
-        <v>982</v>
+        <v>3464</v>
       </c>
       <c r="I51" s="1">
-        <v>85.18</v>
+        <v>303.12</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x2000x600</v>
+        <v>ModernxK2x900x700</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
         <v>2</v>
       </c>
       <c r="E52">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F52">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="G52">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H52">
-        <v>3464</v>
+        <v>1765</v>
       </c>
       <c r="I52" s="1">
-        <v>303.12</v>
+        <v>155.07</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x900x700</v>
+        <v>ModernxK2x1500x300</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
         <v>2</v>
       </c>
       <c r="E53">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F53">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H53">
-        <v>1765</v>
+        <v>1473</v>
       </c>
       <c r="I53" s="1">
-        <v>155.07</v>
+        <v>130.91</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1500x300</v>
+        <v>ModernxK2x500x450</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
         <v>2</v>
       </c>
       <c r="E54">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="F54">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H54">
-        <v>1473</v>
+        <v>686</v>
       </c>
       <c r="I54" s="1">
-        <v>130.91</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x500x450</v>
+        <v>ModernxK2x800x700</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
         <v>2</v>
       </c>
       <c r="E55">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="F55">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H55">
-        <v>686</v>
+        <v>1569</v>
       </c>
       <c r="I55" s="1">
-        <v>61.83</v>
+        <v>143.31</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x800x700</v>
+        <v>ModernxK2x2000x300</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
         <v>2</v>
       </c>
       <c r="E56">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F56">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H56">
-        <v>1569</v>
+        <v>1964</v>
       </c>
       <c r="I56" s="1">
-        <v>143.31</v>
+        <v>181.53</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x2000x300</v>
+        <v>ModernxK2x1600x700</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
         <v>2</v>
       </c>
       <c r="E57">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F57">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="G57">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H57">
-        <v>1964</v>
+        <v>3138</v>
       </c>
       <c r="I57" s="1">
-        <v>181.53</v>
+        <v>292.18</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1600x700</v>
+        <v>ModernxK2x1800x700</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
         <v>2</v>
@@ -2329,29 +2325,29 @@
         <v>700</v>
       </c>
       <c r="F58">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H58">
-        <v>3138</v>
+        <v>3530</v>
       </c>
       <c r="I58" s="1">
-        <v>292.18</v>
+        <v>328.68</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1800x700</v>
+        <v>ModernxK2x1400x700</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
         <v>2</v>
@@ -2360,407 +2356,407 @@
         <v>700</v>
       </c>
       <c r="F59">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="G59">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H59">
-        <v>3530</v>
+        <v>2745</v>
       </c>
       <c r="I59" s="1">
-        <v>328.68</v>
+        <v>255.64</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x1400x700</v>
+        <v>ModernxK1x400x600</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F60">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="G60">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H60">
-        <v>2745</v>
+        <v>392</v>
       </c>
       <c r="I60" s="1">
-        <v>255.64</v>
+        <v>36.619999999999997</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x400x600</v>
+        <v>ModernxP+x1000x300</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F61">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G61">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H61">
-        <v>392</v>
+        <v>745</v>
       </c>
       <c r="I61" s="1">
-        <v>36.619999999999997</v>
+        <v>71.739999999999995</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxP+x1000x300</v>
+        <v>ModernxK2x2000x700</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F62">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G62">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H62">
-        <v>745</v>
+        <v>3922</v>
       </c>
       <c r="I62" s="1">
-        <v>71.739999999999995</v>
+        <v>379.84</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x2000x700</v>
+        <v>ModernxK2x400x450</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
         <v>2</v>
       </c>
       <c r="E63">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="F63">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="G63">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H63">
-        <v>3922</v>
+        <v>548</v>
       </c>
       <c r="I63" s="1">
-        <v>379.84</v>
+        <v>53.29</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x400x450</v>
+        <v>ModernxK2x700x700</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
         <v>2</v>
       </c>
       <c r="E64">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="F64">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="G64">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H64">
-        <v>548</v>
+        <v>1373</v>
       </c>
       <c r="I64" s="1">
-        <v>53.29</v>
+        <v>135.04</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x700x700</v>
+        <v>ModernxK3x1200x500</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E65">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F65">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="G65">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H65">
-        <v>1373</v>
+        <v>2467</v>
       </c>
       <c r="I65" s="1">
-        <v>135.04</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1200x500</v>
+        <v>ModernxP+x1000x700</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F66">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="G66">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H66">
-        <v>2467</v>
+        <v>1530</v>
       </c>
       <c r="I66" s="1">
-        <v>243</v>
+        <v>150.74</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxP+x1000x700</v>
+        <v>ModernxK3x1100x600</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E67">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F67">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G67">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="H67">
-        <v>1530</v>
+        <v>2628</v>
       </c>
       <c r="I67" s="1">
-        <v>150.74</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1100x600</v>
+        <v>ModernxK1x500x450</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="F68">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="G68">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G68:G131" si="1">G67</f>
         <v>1.3</v>
       </c>
       <c r="H68">
-        <v>2628</v>
+        <v>378</v>
       </c>
       <c r="I68" s="1">
-        <v>259</v>
+        <v>37.26</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x500x450</v>
+        <v>ModernxK3x1100x500</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E69">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="F69">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G132" si="1">G68</f>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H69">
-        <v>378</v>
+        <v>2262</v>
       </c>
       <c r="I69" s="1">
-        <v>37.26</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1100x500</v>
+        <v>ModernxK3x1200x600</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
       </c>
       <c r="E70">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F70">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G70">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H70">
-        <v>2262</v>
+        <v>2867</v>
       </c>
       <c r="I70" s="1">
-        <v>223</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1200x600</v>
+        <v>ModernxK3x1000x500</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
       </c>
       <c r="E71">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F71">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="G71">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H71">
-        <v>2867</v>
+        <v>2056</v>
       </c>
       <c r="I71" s="1">
-        <v>283</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1000x500</v>
+        <v>ModernxK3x1000x600</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
       </c>
       <c r="E72">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F72">
         <v>1000</v>
@@ -2770,84 +2766,84 @@
         <v>1.3</v>
       </c>
       <c r="H72">
-        <v>2056</v>
+        <v>2389</v>
       </c>
       <c r="I72" s="1">
-        <v>203</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1000x600</v>
+        <v>ModernxP+x1200x700</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F73">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G73">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H73">
-        <v>2389</v>
+        <v>1836</v>
       </c>
       <c r="I73" s="1">
-        <v>236</v>
+        <v>181.86</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxP+x1200x700</v>
+        <v>ModernxK2x2200x600</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F74">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="G74">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H74">
-        <v>1836</v>
+        <v>3810</v>
       </c>
       <c r="I74" s="1">
-        <v>181.86</v>
+        <v>378.33</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x2200x600</v>
+        <v>ModernxK2x2400x600</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
         <v>2</v>
@@ -2856,153 +2852,153 @@
         <v>600</v>
       </c>
       <c r="F75">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="G75">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H75">
-        <v>3810</v>
+        <v>4157</v>
       </c>
       <c r="I75" s="1">
-        <v>378.33</v>
+        <v>412.94</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x2400x600</v>
+        <v>ModernxK1x2000x600</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>600</v>
       </c>
       <c r="F76">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="G76">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H76">
-        <v>4157</v>
+        <v>1960</v>
       </c>
       <c r="I76" s="1">
-        <v>412.94</v>
+        <v>195.09</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x2000x600</v>
+        <v>ModernxK2x500x300</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E77">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F77">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G77">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H77">
-        <v>1960</v>
+        <v>491</v>
       </c>
       <c r="I77" s="1">
-        <v>195.09</v>
+        <v>48.99</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x500x300</v>
+        <v>ModernxK1x1500x300</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>300</v>
       </c>
       <c r="F78">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G78">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H78">
-        <v>491</v>
+        <v>764</v>
       </c>
       <c r="I78" s="1">
-        <v>48.99</v>
+        <v>76.23</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1500x300</v>
+        <v>ModernxP+x900x700</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F79">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="G79">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H79">
-        <v>764</v>
+        <v>1377</v>
       </c>
       <c r="I79" s="1">
-        <v>76.23</v>
+        <v>137.72999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxP+x900x700</v>
+        <v>ModernxP+x800x700</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
         <v>1</v>
@@ -3011,66 +3007,66 @@
         <v>700</v>
       </c>
       <c r="F80">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G80">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H80">
-        <v>1377</v>
+        <v>1224</v>
       </c>
       <c r="I80" s="1">
-        <v>137.72999999999999</v>
+        <v>124.55</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxP+x800x700</v>
+        <v>ModernxK3x900x500</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E81">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F81">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G81">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H81">
-        <v>1224</v>
+        <v>1850</v>
       </c>
       <c r="I81" s="1">
-        <v>124.55</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x900x500</v>
+        <v>ModernxK3x900x600</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
       </c>
       <c r="E82">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F82">
         <v>900</v>
@@ -3080,146 +3076,146 @@
         <v>1.3</v>
       </c>
       <c r="H82">
-        <v>1850</v>
+        <v>2150</v>
       </c>
       <c r="I82" s="1">
-        <v>190</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x900x600</v>
+        <v>ModernxP+x700x700</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F83">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="G83">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H83">
-        <v>2150</v>
+        <v>1071</v>
       </c>
       <c r="I83" s="1">
-        <v>221</v>
+        <v>112.74</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxP+x700x700</v>
+        <v>ModernxK1x1000x300</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F84">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="G84">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H84">
-        <v>1071</v>
+        <v>509</v>
       </c>
       <c r="I84" s="1">
-        <v>112.74</v>
+        <v>53.62</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1000x300</v>
+        <v>ModernxK2x600x700</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E85">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F85">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="G85">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H85">
-        <v>509</v>
+        <v>1177</v>
       </c>
       <c r="I85" s="1">
-        <v>53.62</v>
+        <v>124.02</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x600x700</v>
+        <v>ModernxK1x800x700</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>700</v>
       </c>
       <c r="F86">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G86">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H86">
-        <v>1177</v>
+        <v>894</v>
       </c>
       <c r="I86" s="1">
-        <v>124.02</v>
+        <v>94.46</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x800x700</v>
+        <v>ModernxK1x1100x700</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
         <v>0</v>
@@ -3228,29 +3224,29 @@
         <v>700</v>
       </c>
       <c r="F87">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="G87">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H87">
-        <v>894</v>
+        <v>1229</v>
       </c>
       <c r="I87" s="1">
-        <v>94.46</v>
+        <v>129.87</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1100x700</v>
+        <v>ModernxK1x700x700</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
         <v>0</v>
@@ -3259,29 +3255,29 @@
         <v>700</v>
       </c>
       <c r="F88">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="G88">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H88">
-        <v>1229</v>
+        <v>782</v>
       </c>
       <c r="I88" s="1">
-        <v>129.87</v>
+        <v>82.64</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x700x700</v>
+        <v>ModernxK1x1000x700</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
         <v>0</v>
@@ -3290,29 +3286,29 @@
         <v>700</v>
       </c>
       <c r="F89">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="G89">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H89">
-        <v>782</v>
+        <v>1117</v>
       </c>
       <c r="I89" s="1">
-        <v>82.64</v>
+        <v>118.06</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1000x700</v>
+        <v>ModernxK1x600x700</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
         <v>0</v>
@@ -3321,29 +3317,29 @@
         <v>700</v>
       </c>
       <c r="F90">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="G90">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H90">
-        <v>1117</v>
+        <v>670</v>
       </c>
       <c r="I90" s="1">
-        <v>118.06</v>
+        <v>70.819999999999993</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x600x700</v>
+        <v>ModernxK1x1400x700</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
         <v>0</v>
@@ -3352,29 +3348,29 @@
         <v>700</v>
       </c>
       <c r="F91">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="G91">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H91">
-        <v>670</v>
+        <v>1564</v>
       </c>
       <c r="I91" s="1">
-        <v>70.819999999999993</v>
+        <v>165.32</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1400x700</v>
+        <v>ModernxK1x1600x700</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
         <v>0</v>
@@ -3383,29 +3379,29 @@
         <v>700</v>
       </c>
       <c r="F92">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="G92">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H92">
-        <v>1564</v>
+        <v>1787</v>
       </c>
       <c r="I92" s="1">
-        <v>165.32</v>
+        <v>188.91</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1600x700</v>
+        <v>ModernxK1x1200x700</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
         <v>0</v>
@@ -3414,29 +3410,29 @@
         <v>700</v>
       </c>
       <c r="F93">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="G93">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H93">
-        <v>1787</v>
+        <v>1340</v>
       </c>
       <c r="I93" s="1">
-        <v>188.91</v>
+        <v>141.69</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1200x700</v>
+        <v>ModernxK1x900x700</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
         <v>0</v>
@@ -3445,97 +3441,97 @@
         <v>700</v>
       </c>
       <c r="F94">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="G94">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H94">
-        <v>1340</v>
+        <v>1005</v>
       </c>
       <c r="I94" s="1">
-        <v>141.69</v>
+        <v>106.28</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x900x700</v>
+        <v>ModernxP+x1400x700</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <v>700</v>
       </c>
       <c r="F95">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="G95">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H95">
-        <v>1005</v>
+        <v>2142</v>
       </c>
       <c r="I95" s="1">
-        <v>106.28</v>
+        <v>227.63</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxP+x1400x700</v>
+        <v>ModernxK3x800x600</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E96">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F96">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="G96">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H96">
-        <v>2142</v>
+        <v>1911</v>
       </c>
       <c r="I96" s="1">
-        <v>227.63</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x800x600</v>
+        <v>ModernxK3x800x500</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
       </c>
       <c r="E97">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F97">
         <v>800</v>
@@ -3545,53 +3541,53 @@
         <v>1.3</v>
       </c>
       <c r="H97">
-        <v>1911</v>
+        <v>1645</v>
       </c>
       <c r="I97" s="1">
-        <v>204</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x800x500</v>
+        <v>ModernxK1x2400x600</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F98">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="G98">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H98">
-        <v>1645</v>
+        <v>2352</v>
       </c>
       <c r="I98" s="1">
-        <v>176</v>
+        <v>253.72</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x2400x600</v>
+        <v>ModernxK1x2200x600</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
         <v>0</v>
@@ -3600,159 +3596,159 @@
         <v>600</v>
       </c>
       <c r="F99">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="G99">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H99">
-        <v>2352</v>
+        <v>2156</v>
       </c>
       <c r="I99" s="1">
-        <v>253.72</v>
+        <v>232.65</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x2200x600</v>
+        <v>ModernxP+x1100x700</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F100">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="G100">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H100">
-        <v>2156</v>
+        <v>1683</v>
       </c>
       <c r="I100" s="1">
-        <v>232.65</v>
+        <v>181.86</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxP+x1100x700</v>
+        <v>ModernxK1x2400x450</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="F101">
-        <v>1100</v>
+        <v>2400</v>
       </c>
       <c r="G101">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H101">
-        <v>1683</v>
+        <v>1814</v>
       </c>
       <c r="I101" s="1">
-        <v>181.86</v>
+        <v>196.23</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x2400x450</v>
+        <v>ModernxP+x600x700</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="F102">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="G102">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H102">
-        <v>1814</v>
+        <v>918</v>
       </c>
       <c r="I102" s="1">
-        <v>196.23</v>
+        <v>99.86</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxP+x600x700</v>
+        <v>ModernxK3x1800x500</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E103">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F103">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="G103">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H103">
-        <v>918</v>
+        <v>3701</v>
       </c>
       <c r="I103" s="1">
-        <v>99.86</v>
+        <v>403</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1800x500</v>
+        <v>ModernxK3x1800x600</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
       </c>
       <c r="E104">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F104">
         <v>1800</v>
@@ -3762,84 +3758,84 @@
         <v>1.3</v>
       </c>
       <c r="H104">
-        <v>3701</v>
+        <v>4300</v>
       </c>
       <c r="I104" s="1">
-        <v>403</v>
+        <v>469</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1800x600</v>
+        <v>ModernxK3x1400x500</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
       </c>
       <c r="E105">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F105">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="G105">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H105">
-        <v>4300</v>
+        <v>2878</v>
       </c>
       <c r="I105" s="1">
-        <v>469</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1400x500</v>
+        <v>ModernxK3x1600x600</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
       </c>
       <c r="E106">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F106">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="G106">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H106">
-        <v>2878</v>
+        <v>3822</v>
       </c>
       <c r="I106" s="1">
-        <v>314</v>
+        <v>417</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1600x600</v>
+        <v>ModernxK3x1400x600</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -3848,91 +3844,91 @@
         <v>600</v>
       </c>
       <c r="F107">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="G107">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H107">
-        <v>3822</v>
+        <v>3345</v>
       </c>
       <c r="I107" s="1">
-        <v>417</v>
+        <v>365</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1400x600</v>
+        <v>ModernxK3x1600x500</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
       </c>
       <c r="E108">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F108">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="G108">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H108">
-        <v>3345</v>
+        <v>3290</v>
       </c>
       <c r="I108" s="1">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1600x500</v>
+        <v>ModernxK1x400x450</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="F109">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="G109">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H109">
-        <v>3290</v>
+        <v>302</v>
       </c>
       <c r="I109" s="1">
-        <v>359</v>
+        <v>33.53</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x400x450</v>
+        <v>ModernxK1x1800x450</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
         <v>0</v>
@@ -3941,128 +3937,128 @@
         <v>450</v>
       </c>
       <c r="F110">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="G110">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H110">
-        <v>302</v>
+        <v>1361</v>
       </c>
       <c r="I110" s="1">
-        <v>33.53</v>
+        <v>154.74</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1800x450</v>
+        <v>ModernxK2x500x700</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E111">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="F111">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G111">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H111">
-        <v>1361</v>
+        <v>981</v>
       </c>
       <c r="I111" s="1">
-        <v>154.74</v>
+        <v>111.95</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x500x700</v>
+        <v>ModernxK1x1800x700</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E112">
         <v>700</v>
       </c>
       <c r="F112">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G112">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H112">
-        <v>981</v>
+        <v>2011</v>
       </c>
       <c r="I112" s="1">
-        <v>111.95</v>
+        <v>230.73</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x1800x700</v>
+        <v>ModernxK3x700x500</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E113">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F113">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="G113">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H113">
-        <v>2011</v>
+        <v>1439</v>
       </c>
       <c r="I113" s="1">
-        <v>230.73</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x700x500</v>
+        <v>ModernxK3x700x600</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
         <v>8</v>
       </c>
       <c r="E114">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F114">
         <v>700</v>
@@ -4072,84 +4068,84 @@
         <v>1.3</v>
       </c>
       <c r="H114">
-        <v>1439</v>
+        <v>1672</v>
       </c>
       <c r="I114" s="1">
-        <v>166</v>
+        <v>193</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A115" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x700x600</v>
+        <v>ModernxK1x2000x450</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="F115">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="G115">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H115">
-        <v>1672</v>
+        <v>1512</v>
       </c>
       <c r="I115" s="1">
-        <v>193</v>
+        <v>175.38</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A116" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x2000x450</v>
+        <v>ModernxP+x1500x300</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="F116">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G116">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H116">
-        <v>1512</v>
+        <v>1118</v>
       </c>
       <c r="I116" s="1">
-        <v>175.38</v>
+        <v>130.16</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxP+x1500x300</v>
+        <v>ModernxP+x500x300</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
         <v>1</v>
@@ -4158,60 +4154,60 @@
         <v>300</v>
       </c>
       <c r="F117">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G117">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H117">
-        <v>1118</v>
+        <v>373</v>
       </c>
       <c r="I117" s="1">
-        <v>130.16</v>
+        <v>44.15</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxP+x500x300</v>
+        <v>ModernxK3x1100x700</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E118">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F118">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G118">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H118">
-        <v>373</v>
+        <v>2983</v>
       </c>
       <c r="I118" s="1">
-        <v>44.15</v>
+        <v>355</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A119" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1100x700</v>
+        <v>ModernxK3x1000x700</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
@@ -4220,29 +4216,29 @@
         <v>700</v>
       </c>
       <c r="F119">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G119">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H119">
-        <v>2983</v>
+        <v>2712</v>
       </c>
       <c r="I119" s="1">
-        <v>355</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A120" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1000x700</v>
+        <v>ModernxK3x1200x700</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
         <v>8</v>
@@ -4251,91 +4247,91 @@
         <v>700</v>
       </c>
       <c r="F120">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G120">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H120">
-        <v>2712</v>
+        <v>3254</v>
       </c>
       <c r="I120" s="1">
-        <v>323</v>
+        <v>388</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A121" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1200x700</v>
+        <v>ModernxP+x400x700</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E121">
         <v>700</v>
       </c>
       <c r="F121">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="G121">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H121">
-        <v>3254</v>
+        <v>612</v>
       </c>
       <c r="I121" s="1">
-        <v>388</v>
+        <v>72.98</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A122" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxP+x400x700</v>
+        <v>ModernxK1x2000x700</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122">
         <v>700</v>
       </c>
       <c r="F122">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="G122">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H122">
-        <v>612</v>
+        <v>2234</v>
       </c>
       <c r="I122" s="1">
-        <v>72.98</v>
+        <v>266.62</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A123" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x2000x700</v>
+        <v>ModernxK1x500x700</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
         <v>0</v>
@@ -4344,32 +4340,32 @@
         <v>700</v>
       </c>
       <c r="F123">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G123">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H123">
-        <v>2234</v>
+        <v>559</v>
       </c>
       <c r="I123" s="1">
-        <v>266.62</v>
+        <v>67.47</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A124" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x500x700</v>
+        <v>ModernxP+x500x700</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124">
         <v>700</v>
@@ -4382,90 +4378,90 @@
         <v>1.3</v>
       </c>
       <c r="H124">
-        <v>559</v>
+        <v>765</v>
       </c>
       <c r="I124" s="1">
-        <v>67.47</v>
+        <v>92.68</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A125" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxP+x500x700</v>
+        <v>ModernxK2x400x700</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125">
         <v>700</v>
       </c>
       <c r="F125">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G125">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H125">
-        <v>765</v>
+        <v>784</v>
       </c>
       <c r="I125" s="1">
-        <v>92.68</v>
+        <v>96.46</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A126" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK2x400x700</v>
+        <v>ModernxK3x600x600</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E126">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F126">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G126">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H126">
-        <v>784</v>
+        <v>1433</v>
       </c>
       <c r="I126" s="1">
-        <v>96.46</v>
+        <v>177</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A127" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x600x600</v>
+        <v>ModernxK3x600x500</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
         <v>8</v>
       </c>
       <c r="E127">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F127">
         <v>600</v>
@@ -4475,177 +4471,177 @@
         <v>1.3</v>
       </c>
       <c r="H127">
-        <v>1433</v>
+        <v>1234</v>
       </c>
       <c r="I127" s="1">
-        <v>177</v>
+        <v>152.51</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A128" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x600x500</v>
+        <v>ModernxK3x900x700</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
         <v>8</v>
       </c>
       <c r="E128">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F128">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G128">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H128">
-        <v>1234</v>
+        <v>2441</v>
       </c>
       <c r="I128" s="1">
-        <v>152.51</v>
+        <v>303</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A129" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x900x700</v>
+        <v>ModernxK1x500x300</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F129">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="G129">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H129">
-        <v>2441</v>
+        <v>255</v>
       </c>
       <c r="I129" s="1">
-        <v>303</v>
+        <v>32.85</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A130" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x500x300</v>
+        <v>ModernxK3x800x700</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E130">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F130">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G130">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H130">
-        <v>255</v>
+        <v>2170</v>
       </c>
       <c r="I130" s="1">
-        <v>32.85</v>
+        <v>280</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A131" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x800x700</v>
+        <v>ModernxK1x2200x450</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="F131">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="G131">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="H131">
-        <v>2170</v>
+        <v>1663</v>
       </c>
       <c r="I131" s="1">
-        <v>280</v>
+        <v>218.4</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A132" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x2200x450</v>
+        <v>ModernxK3x1600x700</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E132">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="F132">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="G132">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G132:G147" si="2">G131</f>
         <v>1.3</v>
       </c>
       <c r="H132">
-        <v>1663</v>
+        <v>4339</v>
       </c>
       <c r="I132" s="1">
-        <v>218.4</v>
+        <v>571</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A133" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1600x700</v>
+        <v>ModernxK3x1400x700</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
         <v>8</v>
@@ -4654,29 +4650,29 @@
         <v>700</v>
       </c>
       <c r="F133">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="G133">
-        <f t="shared" ref="G133:G148" si="2">G132</f>
+        <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H133">
-        <v>4339</v>
+        <v>3797</v>
       </c>
       <c r="I133" s="1">
-        <v>571</v>
+        <v>500</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A134" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1400x700</v>
+        <v>ModernxK3x1800x700</v>
       </c>
       <c r="B134" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
         <v>8</v>
@@ -4685,122 +4681,122 @@
         <v>700</v>
       </c>
       <c r="F134">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="G134">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H134">
-        <v>3797</v>
+        <v>4882</v>
       </c>
       <c r="I134" s="1">
-        <v>500</v>
+        <v>643</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A135" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1800x700</v>
+        <v>ModernxK3x500x600</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
       </c>
       <c r="E135">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F135">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G135">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H135">
-        <v>4882</v>
+        <v>1195</v>
       </c>
       <c r="I135" s="1">
-        <v>643</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A136" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x500x600</v>
+        <v>ModernxK1x400x700</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E136">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F136">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G136">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H136">
-        <v>1195</v>
+        <v>447</v>
       </c>
       <c r="I136" s="1">
-        <v>160</v>
+        <v>60.71</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A137" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK1x400x700</v>
+        <v>ModernxK3x2000x700</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E137">
         <v>700</v>
       </c>
       <c r="F137">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="G137">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H137">
-        <v>447</v>
+        <v>5424</v>
       </c>
       <c r="I137" s="1">
-        <v>60.71</v>
+        <v>743</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A138" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x2000x700</v>
+        <v>ModernxK3x700x700</v>
       </c>
       <c r="B138" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
         <v>8</v>
@@ -4809,190 +4805,190 @@
         <v>700</v>
       </c>
       <c r="F138">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="G138">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H138">
-        <v>5424</v>
+        <v>1898</v>
       </c>
       <c r="I138" s="1">
-        <v>743</v>
+        <v>264</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A139" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x700x700</v>
+        <v>ModernxK3x400x600</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
         <v>8</v>
       </c>
       <c r="E139">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F139">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="G139">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H139">
-        <v>1898</v>
+        <v>956</v>
       </c>
       <c r="I139" s="1">
-        <v>264</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A140" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x400x600</v>
+        <v>ModernxK3x600x700</v>
       </c>
       <c r="B140" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
         <v>8</v>
       </c>
       <c r="E140">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F140">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G140">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H140">
-        <v>956</v>
+        <v>1627</v>
       </c>
       <c r="I140" s="1">
-        <v>137</v>
+        <v>242</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A141" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x600x700</v>
+        <v>ModernxK3x1000x300</v>
       </c>
       <c r="B141" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
         <v>8</v>
       </c>
       <c r="E141">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F141">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G141">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H141">
-        <v>1627</v>
+        <v>1349</v>
       </c>
       <c r="I141" s="1">
-        <v>242</v>
+        <v>201</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A142" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x1000x300</v>
+        <v>ModernxK3x2400x500</v>
       </c>
       <c r="B142" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
         <v>8</v>
       </c>
       <c r="E142">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F142">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="G142">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H142">
-        <v>1349</v>
+        <v>4934</v>
       </c>
       <c r="I142" s="1">
-        <v>201</v>
+        <v>741</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A143" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x2400x500</v>
+        <v>ModernxK3x2000x600</v>
       </c>
       <c r="B143" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
         <v>8</v>
       </c>
       <c r="E143">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F143">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="G143">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H143">
-        <v>4934</v>
+        <v>4778</v>
       </c>
       <c r="I143" s="1">
-        <v>741</v>
+        <v>718</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A144" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x2000x600</v>
+        <v>ModernxK3x2000x500</v>
       </c>
       <c r="B144" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
         <v>8</v>
       </c>
       <c r="E144">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F144">
         <v>2000</v>
@@ -5002,705 +4998,677 @@
         <v>1.3</v>
       </c>
       <c r="H144">
-        <v>4778</v>
+        <v>4112</v>
       </c>
       <c r="I144" s="1">
-        <v>718</v>
+        <v>618</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A145" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x2000x500</v>
+        <v>ModernxK3x2400x600</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C145" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
         <v>8</v>
       </c>
       <c r="E145">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F145">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="G145">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H145">
-        <v>4112</v>
+        <v>5734</v>
       </c>
       <c r="I145" s="1">
-        <v>618</v>
+        <v>862</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A146" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x2400x600</v>
+        <v>ModernxK3x2000x300</v>
       </c>
       <c r="B146" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C146" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
         <v>8</v>
       </c>
       <c r="E146">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F146">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="G146">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H146">
-        <v>5734</v>
+        <v>2698</v>
       </c>
       <c r="I146" s="1">
-        <v>862</v>
+        <v>428</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A147" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x2000x300</v>
+        <v>ModernxK3x500x700</v>
       </c>
       <c r="B147" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C147" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
         <v>8</v>
       </c>
       <c r="E147">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F147">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G147">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H147">
-        <v>2698</v>
+        <v>1356</v>
       </c>
       <c r="I147" s="1">
-        <v>428</v>
+        <v>219</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A148" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>ModernxK3x500x700</v>
+        <v>Columnx2 Colx1042x600</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D148" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E148">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F148">
-        <v>500</v>
+        <v>1042</v>
       </c>
       <c r="G148">
-        <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="H148">
-        <v>1356</v>
+        <v>997</v>
       </c>
       <c r="I148" s="1">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A149" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx2 Colx1042x600</v>
+        <v>Columnx2 Colx628x600</v>
       </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C149" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D149" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E149">
         <v>600</v>
       </c>
       <c r="F149">
-        <v>1042</v>
+        <v>628</v>
       </c>
       <c r="G149">
         <v>1.3</v>
       </c>
       <c r="H149">
-        <v>997</v>
+        <v>590</v>
       </c>
       <c r="I149" s="1">
-        <v>210</v>
+        <v>124</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A150" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx2 Colx628x600</v>
+        <v>Columnx3 Colx812x600</v>
       </c>
       <c r="B150" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C150" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D150" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E150">
         <v>600</v>
       </c>
       <c r="F150">
-        <v>628</v>
+        <v>812</v>
       </c>
       <c r="G150">
         <v>1.3</v>
       </c>
       <c r="H150">
-        <v>590</v>
+        <v>1035</v>
       </c>
       <c r="I150" s="1">
-        <v>124</v>
+        <v>193</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A151" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx3 Colx812x600</v>
-      </c>
-      <c r="B151" t="s">
-        <v>17</v>
-      </c>
-      <c r="C151" t="s">
-        <v>14</v>
+      <c r="A151" s="3" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx2 Colx1226x600</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D151" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E151">
         <v>600</v>
       </c>
       <c r="F151">
-        <v>812</v>
+        <v>1226</v>
       </c>
       <c r="G151">
         <v>1.3</v>
       </c>
       <c r="H151">
-        <v>1035</v>
+        <v>1226</v>
       </c>
       <c r="I151" s="1">
-        <v>193</v>
+        <v>327</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A152" s="3" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx2 Colx1226x600</v>
+      <c r="A152" s="5" t="str">
+        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
+        <v>Columnx2 Colx1190x600</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D152" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E152">
         <v>600</v>
       </c>
       <c r="F152">
-        <v>1226</v>
+        <v>1190</v>
       </c>
       <c r="G152">
         <v>1.3</v>
       </c>
       <c r="H152">
-        <v>1226</v>
+        <v>1141</v>
       </c>
       <c r="I152" s="1">
-        <v>327</v>
+        <v>230</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A153" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx2 Colx1190x600</v>
-      </c>
-      <c r="B153" s="4" t="s">
+        <v>Columnx2 Colx1410x600</v>
+      </c>
+      <c r="B153" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" t="s">
         <v>18</v>
       </c>
-      <c r="C153" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D153" t="s">
-        <v>21</v>
-      </c>
       <c r="E153">
         <v>600</v>
       </c>
       <c r="F153">
-        <v>1190</v>
+        <v>1410</v>
       </c>
       <c r="G153">
         <v>1.3</v>
       </c>
       <c r="H153">
-        <v>1141</v>
+        <v>1359</v>
       </c>
       <c r="I153" s="1">
-        <v>230</v>
+        <v>370</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A154" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx2 Colx1410x600</v>
+        <v>Columnx2 Colx1010x600</v>
       </c>
       <c r="B154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D154" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E154">
         <v>600</v>
       </c>
       <c r="F154">
-        <v>1410</v>
+        <v>1010</v>
       </c>
       <c r="G154">
         <v>1.3</v>
       </c>
       <c r="H154">
-        <v>1359</v>
+        <v>966</v>
       </c>
       <c r="I154" s="1">
-        <v>370</v>
+        <v>195</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A155" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx2 Colx1010x600</v>
+        <v>Columnx3 Colx812x600</v>
       </c>
       <c r="B155" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C155" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D155" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E155">
         <v>600</v>
       </c>
       <c r="F155">
-        <v>1010</v>
+        <v>812</v>
       </c>
       <c r="G155">
         <v>1.3</v>
       </c>
       <c r="H155">
-        <v>966</v>
+        <v>1035</v>
       </c>
       <c r="I155" s="1">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A156" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx3 Colx812x600</v>
+        <v>Columnx3 Colx628x600</v>
       </c>
       <c r="B156" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C156" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D156" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E156">
         <v>600</v>
       </c>
       <c r="F156">
-        <v>812</v>
+        <v>628</v>
       </c>
       <c r="G156">
         <v>1.3</v>
       </c>
       <c r="H156">
-        <v>1035</v>
+        <v>792</v>
       </c>
       <c r="I156" s="1">
-        <v>193</v>
+        <v>161</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A157" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx3 Colx628x600</v>
+        <v>Columnx3 Colx1226x600</v>
       </c>
       <c r="B157" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C157" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D157" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E157">
         <v>600</v>
       </c>
       <c r="F157">
-        <v>628</v>
+        <v>1226</v>
       </c>
       <c r="G157">
         <v>1.3</v>
       </c>
       <c r="H157">
-        <v>792</v>
+        <v>1583</v>
       </c>
       <c r="I157" s="1">
-        <v>161</v>
+        <v>355</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A158" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx3 Colx1226x600</v>
+        <v>Columnx3 Colx1042x600</v>
       </c>
       <c r="B158" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C158" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D158" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E158">
         <v>600</v>
       </c>
       <c r="F158">
-        <v>1226</v>
+        <v>1042</v>
       </c>
       <c r="G158">
         <v>1.3</v>
       </c>
       <c r="H158">
-        <v>1583</v>
+        <v>1340</v>
       </c>
       <c r="I158" s="1">
-        <v>355</v>
+        <v>300</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A159" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx3 Colx1042x600</v>
+        <v>Columnx3 Colx1190x600</v>
       </c>
       <c r="B159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C159" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D159" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E159">
         <v>600</v>
       </c>
       <c r="F159">
-        <v>1042</v>
+        <v>1190</v>
       </c>
       <c r="G159">
         <v>1.3</v>
       </c>
       <c r="H159">
-        <v>1340</v>
+        <v>1478</v>
       </c>
       <c r="I159" s="1">
-        <v>300</v>
+        <v>260</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A160" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx3 Colx1190x600</v>
+        <v>Columnx3 Colx650x600</v>
       </c>
       <c r="B160" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C160" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D160" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E160">
         <v>600</v>
       </c>
       <c r="F160">
-        <v>1190</v>
+        <v>650</v>
       </c>
       <c r="G160">
         <v>1.3</v>
       </c>
       <c r="H160">
-        <v>1478</v>
+        <v>801</v>
       </c>
       <c r="I160" s="1">
-        <v>260</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A161" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx3 Colx650x600</v>
+        <v>Columnx3 Colx830x600</v>
       </c>
       <c r="B161" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D161" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E161">
         <v>600</v>
       </c>
       <c r="F161">
-        <v>650</v>
+        <v>830</v>
       </c>
       <c r="G161">
         <v>1.3</v>
       </c>
       <c r="H161">
-        <v>801</v>
+        <v>1030</v>
       </c>
       <c r="I161" s="1">
-        <v>160</v>
+        <v>195</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A162" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx3 Colx830x600</v>
+        <v>Columnx3 Colx1010x600</v>
       </c>
       <c r="B162" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C162" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D162" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E162">
         <v>600</v>
       </c>
       <c r="F162">
-        <v>830</v>
+        <v>1010</v>
       </c>
       <c r="G162">
         <v>1.3</v>
       </c>
       <c r="H162">
-        <v>1030</v>
+        <v>1258</v>
       </c>
       <c r="I162" s="1">
-        <v>195</v>
+        <v>250</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A163" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Coumnx3 Colx1010x600</v>
+        <v>Columnx4 Colx1226x600</v>
       </c>
       <c r="B163" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C163" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D163" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E163">
         <v>600</v>
       </c>
       <c r="F163">
-        <v>1010</v>
+        <v>1226</v>
       </c>
       <c r="G163">
         <v>1.3</v>
       </c>
       <c r="H163">
-        <v>1258</v>
+        <v>2079</v>
       </c>
       <c r="I163" s="1">
-        <v>250</v>
+        <v>400</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A164" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx4 Colx1226x600</v>
+        <v>Columnx4 Colx1042x600</v>
       </c>
       <c r="B164" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C164" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D164" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E164">
         <v>600</v>
       </c>
       <c r="F164">
-        <v>1226</v>
+        <v>1042</v>
       </c>
       <c r="G164">
         <v>1.3</v>
       </c>
       <c r="H164">
-        <v>2079</v>
+        <v>1756</v>
       </c>
       <c r="I164" s="1">
-        <v>400</v>
+        <v>305</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A165" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx4 Colx1042x600</v>
+        <v>Columnx4 Colx812x600</v>
       </c>
       <c r="B165" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C165" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D165" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E165">
         <v>600</v>
       </c>
       <c r="F165">
-        <v>1042</v>
+        <v>812</v>
       </c>
       <c r="G165">
         <v>1.3</v>
       </c>
       <c r="H165">
-        <v>1756</v>
+        <v>1356</v>
       </c>
       <c r="I165" s="1">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A166" s="5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx4 Colx812x600</v>
+        <v>Columnx4 Colx628x600</v>
       </c>
       <c r="B166" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D166" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E166">
         <v>600</v>
       </c>
       <c r="F166">
-        <v>812</v>
+        <v>628</v>
       </c>
       <c r="G166">
         <v>1.3</v>
       </c>
       <c r="H166">
-        <v>1356</v>
+        <v>1037</v>
       </c>
       <c r="I166" s="1">
-        <v>315</v>
+        <v>225</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A167" s="5" t="str">
-        <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
-        <v>Columnx4 Colx628x600</v>
-      </c>
-      <c r="B167" t="s">
-        <v>17</v>
-      </c>
-      <c r="C167" t="s">
-        <v>14</v>
-      </c>
-      <c r="D167" t="s">
-        <v>23</v>
-      </c>
-      <c r="E167">
-        <v>600</v>
-      </c>
-      <c r="F167">
-        <v>628</v>
-      </c>
-      <c r="G167">
-        <v>1.3</v>
-      </c>
-      <c r="H167">
-        <v>1037</v>
-      </c>
-      <c r="I167" s="1">
-        <v>225</v>
-      </c>
+      <c r="I167" s="1"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I168" s="1"/>
@@ -5710,9 +5678,6 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I170" s="1"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I171" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Radiator Database.xlsx
+++ b/Radiator Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Documents\GitSourceCode\Radiators\radiators2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD446A0-3937-47A5-B7D7-14DC7DFD118F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DCF6A3-061A-401F-A4C5-E191195540E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19838" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43200" yWindow="0" windowWidth="44235" windowHeight="25380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RadiatorDatabase" sheetId="2" r:id="rId1"/>
